--- a/DFA.xlsx
+++ b/DFA.xlsx
@@ -24,18 +24,313 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="96">
+  <si>
+    <t>Hygiene</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>Fun</t>
+  </si>
+  <si>
+    <t>→</t>
+  </si>
+  <si>
+    <t>Nama</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Tidur</t>
+  </si>
+  <si>
+    <t>Makan</t>
+  </si>
+  <si>
+    <t>Minum</t>
+  </si>
+  <si>
+    <t>Buang Air</t>
+  </si>
+  <si>
+    <t>Berosialisasi</t>
+  </si>
+  <si>
+    <t>Ke Kafe</t>
+  </si>
+  <si>
+    <t>Bermain</t>
+  </si>
+  <si>
+    <t>Media Sosial</t>
+  </si>
+  <si>
+    <t>Komputer</t>
+  </si>
+  <si>
+    <t>Mandi</t>
+  </si>
+  <si>
+    <t>Mendengarkan Musik</t>
+  </si>
+  <si>
+    <t>Di Radio</t>
+  </si>
+  <si>
+    <t>Membaca</t>
+  </si>
+  <si>
+    <t>Koran</t>
+  </si>
+  <si>
+    <t>Novel</t>
+  </si>
+  <si>
+    <t>Siang</t>
+  </si>
+  <si>
+    <t>Malam</t>
+  </si>
+  <si>
+    <t>Hamburger</t>
+  </si>
+  <si>
+    <t>Pizza</t>
+  </si>
+  <si>
+    <t>Steak and Beans</t>
+  </si>
+  <si>
+    <t>Air</t>
+  </si>
+  <si>
+    <t>Kopi</t>
+  </si>
+  <si>
+    <t>Jus</t>
+  </si>
+  <si>
+    <t>Kecil</t>
+  </si>
+  <si>
+    <t>Besar</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>AE</t>
+  </si>
+  <si>
+    <t>AF</t>
+  </si>
+  <si>
+    <t>AG</t>
+  </si>
+  <si>
+    <t>AH</t>
+  </si>
+  <si>
+    <t>AI</t>
+  </si>
+  <si>
+    <t>AJ</t>
+  </si>
+  <si>
+    <t>AK</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>AN</t>
+  </si>
+  <si>
+    <t>AO</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>AQ</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>AS</t>
+  </si>
+  <si>
+    <t>AT</t>
+  </si>
+  <si>
+    <t>AU</t>
+  </si>
+  <si>
+    <t>AV</t>
+  </si>
+  <si>
+    <t>AW</t>
+  </si>
+  <si>
+    <t>AX</t>
+  </si>
+  <si>
+    <t>AY</t>
+  </si>
+  <si>
+    <t>AZ</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>BB</t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>BD</t>
+  </si>
+  <si>
+    <t>BE</t>
+  </si>
+  <si>
+    <t>BF</t>
+  </si>
+  <si>
+    <t>BG</t>
+  </si>
+  <si>
+    <t>BH</t>
+  </si>
+  <si>
+    <t>BI</t>
+  </si>
+  <si>
+    <t>BJ</t>
+  </si>
+  <si>
+    <t>BK</t>
+  </si>
+  <si>
+    <t>BL</t>
+  </si>
+  <si>
+    <t>BM</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -46,7 +341,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -54,12 +349,111 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -340,14 +734,3844 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A3:AA83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="9.140625" style="5"/>
+    <col min="3" max="3" width="15.7109375" style="2" customWidth="1"/>
+    <col min="4" max="6" width="9.140625" style="2"/>
+    <col min="7" max="7" width="9.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="2"/>
+    <col min="9" max="9" width="13.85546875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="2"/>
+    <col min="11" max="11" width="18" style="2" customWidth="1"/>
+    <col min="12" max="17" width="9.140625" style="2"/>
+    <col min="18" max="18" width="9.140625" style="2" customWidth="1"/>
+    <col min="19" max="23" width="9.140625" style="2"/>
+    <col min="24" max="25" width="12.140625" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="C3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="11"/>
+      <c r="I3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="V3" s="8"/>
+      <c r="W3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="X3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA3" s="8"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="C4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="R4" s="9"/>
+      <c r="S4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="V4" s="8"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <f>E5+10</f>
+        <v>20</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>10</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3" t="str">
+        <f>IF(E5+10 &gt;= 20, "Null")</f>
+        <v>Null</v>
+      </c>
+      <c r="H5" s="3" t="str">
+        <f>IF(E5+15 &gt;= 20, "Null")</f>
+        <v>Null</v>
+      </c>
+      <c r="I5" s="3" t="b">
+        <f>IF(E5+5 &gt;= 20, "Null")</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="3" t="str">
+        <f>IF(E5+10&gt;= 20, "Null")</f>
+        <v>Null</v>
+      </c>
+      <c r="K5" s="3" t="str">
+        <f>IF(E5+15 &gt;= 20, "Null")</f>
+        <v>Null</v>
+      </c>
+      <c r="L5" s="3" t="str">
+        <f>IF(D5-5 &lt;= 0, "Null")</f>
+        <v>Null</v>
+      </c>
+      <c r="M5" s="3" t="b">
+        <f>IF(E5+5 &gt;= 20, "Null")</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <f t="shared" ref="A6:A68" si="0">E6+10</f>
+        <v>10</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <v>5</v>
+      </c>
+      <c r="G6" s="3" t="b">
+        <f t="shared" ref="G6:G68" si="1">IF(E6+10 &gt;= 20, "Null")</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="3" t="b">
+        <f t="shared" ref="H6:H68" si="2">IF(E6+15 &gt;= 20, "Null")</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="3" t="b">
+        <f t="shared" ref="I6:I68" si="3">IF(E6+5 &gt;= 20, "Null")</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="3" t="b">
+        <f t="shared" ref="J6:J68" si="4">IF(E6+10&gt;= 20, "Null")</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="3" t="b">
+        <f t="shared" ref="K6:K68" si="5">IF(E6+15 &gt;= 20, "Null")</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="3" t="str">
+        <f t="shared" ref="L6:L67" si="6">IF(D6-5 &lt;= 0, "Null")</f>
+        <v>Null</v>
+      </c>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>10</v>
+      </c>
+      <c r="G7" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="3" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="3" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="3" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="3" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>Null</v>
+      </c>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>15</v>
+      </c>
+      <c r="G8" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="3" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="3" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="3" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="3" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>Null</v>
+      </c>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>5</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Null</v>
+      </c>
+      <c r="I9" s="3" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="3" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>Null</v>
+      </c>
+      <c r="L9" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>Null</v>
+      </c>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
+        <v>5</v>
+      </c>
+      <c r="F10" s="3">
+        <v>5</v>
+      </c>
+      <c r="G10" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Null</v>
+      </c>
+      <c r="I10" s="3" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="3" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>Null</v>
+      </c>
+      <c r="L10" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>Null</v>
+      </c>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3">
+        <v>5</v>
+      </c>
+      <c r="F11" s="3">
+        <v>10</v>
+      </c>
+      <c r="G11" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Null</v>
+      </c>
+      <c r="I11" s="3" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="3" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>Null</v>
+      </c>
+      <c r="L11" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>Null</v>
+      </c>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
+        <v>5</v>
+      </c>
+      <c r="F12" s="3">
+        <v>15</v>
+      </c>
+      <c r="G12" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Null</v>
+      </c>
+      <c r="I12" s="3" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="3" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>Null</v>
+      </c>
+      <c r="L12" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>Null</v>
+      </c>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3">
+        <v>10</v>
+      </c>
+      <c r="F13" s="3">
+        <v>5</v>
+      </c>
+      <c r="G13" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Null</v>
+      </c>
+      <c r="H13" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Null</v>
+      </c>
+      <c r="I13" s="3" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Null</v>
+      </c>
+      <c r="K13" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>Null</v>
+      </c>
+      <c r="L13" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>Null</v>
+      </c>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>10</v>
+      </c>
+      <c r="F14" s="3">
+        <v>10</v>
+      </c>
+      <c r="G14" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Null</v>
+      </c>
+      <c r="H14" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Null</v>
+      </c>
+      <c r="I14" s="3" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Null</v>
+      </c>
+      <c r="K14" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>Null</v>
+      </c>
+      <c r="L14" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>Null</v>
+      </c>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>10</v>
+      </c>
+      <c r="F15" s="3">
+        <v>15</v>
+      </c>
+      <c r="G15" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Null</v>
+      </c>
+      <c r="H15" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Null</v>
+      </c>
+      <c r="I15" s="3" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Null</v>
+      </c>
+      <c r="K15" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>Null</v>
+      </c>
+      <c r="L15" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>Null</v>
+      </c>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3">
+        <v>15</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Null</v>
+      </c>
+      <c r="H16" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Null</v>
+      </c>
+      <c r="I16" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Null</v>
+      </c>
+      <c r="J16" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Null</v>
+      </c>
+      <c r="K16" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>Null</v>
+      </c>
+      <c r="L16" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>Null</v>
+      </c>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
+        <v>15</v>
+      </c>
+      <c r="F17" s="3">
+        <v>5</v>
+      </c>
+      <c r="G17" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Null</v>
+      </c>
+      <c r="H17" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Null</v>
+      </c>
+      <c r="I17" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Null</v>
+      </c>
+      <c r="J17" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Null</v>
+      </c>
+      <c r="K17" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>Null</v>
+      </c>
+      <c r="L17" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>Null</v>
+      </c>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
+        <v>15</v>
+      </c>
+      <c r="F18" s="3">
+        <v>10</v>
+      </c>
+      <c r="G18" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Null</v>
+      </c>
+      <c r="H18" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Null</v>
+      </c>
+      <c r="I18" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Null</v>
+      </c>
+      <c r="J18" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Null</v>
+      </c>
+      <c r="K18" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>Null</v>
+      </c>
+      <c r="L18" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>Null</v>
+      </c>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3"/>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0</v>
+      </c>
+      <c r="E19" s="3">
+        <v>15</v>
+      </c>
+      <c r="F19" s="3">
+        <v>15</v>
+      </c>
+      <c r="G19" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Null</v>
+      </c>
+      <c r="H19" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Null</v>
+      </c>
+      <c r="I19" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Null</v>
+      </c>
+      <c r="J19" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Null</v>
+      </c>
+      <c r="K19" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>Null</v>
+      </c>
+      <c r="L19" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>Null</v>
+      </c>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="3">
+        <v>5</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3" t="b">
+        <f>IF(E20+10 &gt;= 20, "Null")</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="3" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="3" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="3" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="3" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>Null</v>
+      </c>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3"/>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="3">
+        <v>5</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
+        <v>5</v>
+      </c>
+      <c r="G21" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="3" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="3" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="3" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="3" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="3" t="str">
+        <f>IF(D21-5 &lt;= 0, "Null")</f>
+        <v>Null</v>
+      </c>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="3">
+        <v>5</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>10</v>
+      </c>
+      <c r="G22" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="3" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="3" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="3" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="3" t="b">
+        <f>IF(E22+15 &gt;= 20, "Null")</f>
+        <v>0</v>
+      </c>
+      <c r="L22" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>Null</v>
+      </c>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="3">
+        <v>5</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
+        <v>15</v>
+      </c>
+      <c r="G23" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="3" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="3" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="3" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="3" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>Null</v>
+      </c>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3"/>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="3">
+        <v>5</v>
+      </c>
+      <c r="E24" s="3">
+        <v>5</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Null</v>
+      </c>
+      <c r="I24" s="3" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="3" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>Null</v>
+      </c>
+      <c r="L24" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>Null</v>
+      </c>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3"/>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="3">
+        <v>5</v>
+      </c>
+      <c r="E25" s="3">
+        <v>5</v>
+      </c>
+      <c r="F25" s="3">
+        <v>5</v>
+      </c>
+      <c r="G25" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Null</v>
+      </c>
+      <c r="I25" s="3" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="3" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>Null</v>
+      </c>
+      <c r="L25" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>Null</v>
+      </c>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
+      <c r="AA25" s="3"/>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="3">
+        <v>5</v>
+      </c>
+      <c r="E26" s="3">
+        <v>5</v>
+      </c>
+      <c r="F26" s="3">
+        <v>10</v>
+      </c>
+      <c r="G26" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Null</v>
+      </c>
+      <c r="I26" s="3" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="3" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>Null</v>
+      </c>
+      <c r="L26" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>Null</v>
+      </c>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+      <c r="AA26" s="3"/>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="3">
+        <v>5</v>
+      </c>
+      <c r="E27" s="3">
+        <v>5</v>
+      </c>
+      <c r="F27" s="3">
+        <v>15</v>
+      </c>
+      <c r="G27" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Null</v>
+      </c>
+      <c r="I27" s="3" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="3" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>Null</v>
+      </c>
+      <c r="L27" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>Null</v>
+      </c>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3"/>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="3">
+        <v>5</v>
+      </c>
+      <c r="E28" s="3">
+        <v>10</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0</v>
+      </c>
+      <c r="G28" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Null</v>
+      </c>
+      <c r="H28" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Null</v>
+      </c>
+      <c r="I28" s="3" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Null</v>
+      </c>
+      <c r="K28" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>Null</v>
+      </c>
+      <c r="L28" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>Null</v>
+      </c>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3"/>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="3">
+        <v>5</v>
+      </c>
+      <c r="E29" s="3">
+        <v>10</v>
+      </c>
+      <c r="F29" s="3">
+        <v>5</v>
+      </c>
+      <c r="G29" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Null</v>
+      </c>
+      <c r="H29" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Null</v>
+      </c>
+      <c r="I29" s="3" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Null</v>
+      </c>
+      <c r="K29" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>Null</v>
+      </c>
+      <c r="L29" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>Null</v>
+      </c>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="3"/>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="3">
+        <v>5</v>
+      </c>
+      <c r="E30" s="3">
+        <v>10</v>
+      </c>
+      <c r="F30" s="3">
+        <v>10</v>
+      </c>
+      <c r="G30" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Null</v>
+      </c>
+      <c r="H30" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Null</v>
+      </c>
+      <c r="I30" s="3" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Null</v>
+      </c>
+      <c r="K30" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>Null</v>
+      </c>
+      <c r="L30" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>Null</v>
+      </c>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="3"/>
+      <c r="AA30" s="3"/>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="3">
+        <v>5</v>
+      </c>
+      <c r="E31" s="3">
+        <v>10</v>
+      </c>
+      <c r="F31" s="3">
+        <v>15</v>
+      </c>
+      <c r="G31" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Null</v>
+      </c>
+      <c r="H31" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Null</v>
+      </c>
+      <c r="I31" s="3" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Null</v>
+      </c>
+      <c r="K31" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>Null</v>
+      </c>
+      <c r="L31" s="3" t="str">
+        <f>IF(D31-5 &lt;= 0, "Null")</f>
+        <v>Null</v>
+      </c>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3"/>
+      <c r="AA31" s="3"/>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="3">
+        <v>5</v>
+      </c>
+      <c r="E32" s="3">
+        <v>15</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3" t="str">
+        <f>IF(E32+10 &gt;= 20, "Null")</f>
+        <v>Null</v>
+      </c>
+      <c r="H32" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Null</v>
+      </c>
+      <c r="I32" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Null</v>
+      </c>
+      <c r="J32" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Null</v>
+      </c>
+      <c r="K32" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>Null</v>
+      </c>
+      <c r="L32" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>Null</v>
+      </c>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="3"/>
+      <c r="Y32" s="3"/>
+      <c r="Z32" s="3"/>
+      <c r="AA32" s="3"/>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D33" s="3">
+        <v>5</v>
+      </c>
+      <c r="E33" s="3">
+        <v>15</v>
+      </c>
+      <c r="F33" s="3">
+        <v>5</v>
+      </c>
+      <c r="G33" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Null</v>
+      </c>
+      <c r="H33" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Null</v>
+      </c>
+      <c r="I33" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Null</v>
+      </c>
+      <c r="J33" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Null</v>
+      </c>
+      <c r="K33" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>Null</v>
+      </c>
+      <c r="L33" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>Null</v>
+      </c>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="3"/>
+      <c r="AA33" s="3"/>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34" s="3">
+        <v>5</v>
+      </c>
+      <c r="E34" s="3">
+        <v>15</v>
+      </c>
+      <c r="F34" s="3">
+        <v>10</v>
+      </c>
+      <c r="G34" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Null</v>
+      </c>
+      <c r="H34" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Null</v>
+      </c>
+      <c r="I34" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Null</v>
+      </c>
+      <c r="J34" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Null</v>
+      </c>
+      <c r="K34" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>Null</v>
+      </c>
+      <c r="L34" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>Null</v>
+      </c>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="3"/>
+      <c r="AA34" s="3"/>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D35" s="3">
+        <v>5</v>
+      </c>
+      <c r="E35" s="3">
+        <v>15</v>
+      </c>
+      <c r="F35" s="3">
+        <v>15</v>
+      </c>
+      <c r="G35" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Null</v>
+      </c>
+      <c r="H35" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Null</v>
+      </c>
+      <c r="I35" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Null</v>
+      </c>
+      <c r="J35" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Null</v>
+      </c>
+      <c r="K35" s="3" t="str">
+        <f>IF(E35+15 &gt;= 20, "Null")</f>
+        <v>Null</v>
+      </c>
+      <c r="L35" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>Null</v>
+      </c>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="3"/>
+      <c r="W35" s="3"/>
+      <c r="X35" s="3"/>
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="3"/>
+      <c r="AA35" s="3"/>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D36" s="3">
+        <v>10</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0</v>
+      </c>
+      <c r="F36" s="3">
+        <v>0</v>
+      </c>
+      <c r="G36" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H36" s="3" t="b">
+        <f>IF(E36+15 &gt;= 20, "Null")</f>
+        <v>0</v>
+      </c>
+      <c r="I36" s="3" t="b">
+        <f>IF(E36+5 &gt;= 20, "Null")</f>
+        <v>0</v>
+      </c>
+      <c r="J36" s="3" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K36" s="3" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L36" s="3" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="3"/>
+      <c r="W36" s="3"/>
+      <c r="X36" s="3"/>
+      <c r="Y36" s="3"/>
+      <c r="Z36" s="3"/>
+      <c r="AA36" s="3"/>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D37" s="3">
+        <v>10</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0</v>
+      </c>
+      <c r="F37" s="3">
+        <v>5</v>
+      </c>
+      <c r="G37" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H37" s="3" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I37" s="3" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J37" s="3" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K37" s="3" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L37" s="3" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
+      <c r="V37" s="3"/>
+      <c r="W37" s="3"/>
+      <c r="X37" s="3"/>
+      <c r="Y37" s="3"/>
+      <c r="Z37" s="3"/>
+      <c r="AA37" s="3"/>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" s="3">
+        <v>10</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0</v>
+      </c>
+      <c r="F38" s="3">
+        <v>10</v>
+      </c>
+      <c r="G38" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H38" s="3" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I38" s="3" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J38" s="3" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K38" s="3" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L38" s="3" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
+      <c r="V38" s="3"/>
+      <c r="W38" s="3"/>
+      <c r="X38" s="3"/>
+      <c r="Y38" s="3"/>
+      <c r="Z38" s="3"/>
+      <c r="AA38" s="3"/>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D39" s="3">
+        <v>10</v>
+      </c>
+      <c r="E39" s="3">
+        <v>0</v>
+      </c>
+      <c r="F39" s="3">
+        <v>15</v>
+      </c>
+      <c r="G39" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H39" s="3" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I39" s="3" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J39" s="3" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K39" s="3" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L39" s="3" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D40" s="3">
+        <v>10</v>
+      </c>
+      <c r="E40" s="3">
+        <v>5</v>
+      </c>
+      <c r="F40" s="3">
+        <v>0</v>
+      </c>
+      <c r="G40" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H40" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Null</v>
+      </c>
+      <c r="I40" s="3" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J40" s="3" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K40" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>Null</v>
+      </c>
+      <c r="L40" s="3" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D41" s="3">
+        <v>10</v>
+      </c>
+      <c r="E41" s="3">
+        <v>5</v>
+      </c>
+      <c r="F41" s="3">
+        <v>5</v>
+      </c>
+      <c r="G41" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H41" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Null</v>
+      </c>
+      <c r="I41" s="3" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J41" s="3" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K41" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>Null</v>
+      </c>
+      <c r="L41" s="3" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="3"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="3"/>
+      <c r="U41" s="3"/>
+      <c r="V41" s="3"/>
+      <c r="W41" s="3"/>
+      <c r="X41" s="3"/>
+      <c r="Y41" s="3"/>
+      <c r="Z41" s="3"/>
+      <c r="AA41" s="3"/>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D42" s="3">
+        <v>10</v>
+      </c>
+      <c r="E42" s="3">
+        <v>5</v>
+      </c>
+      <c r="F42" s="3">
+        <v>10</v>
+      </c>
+      <c r="G42" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H42" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Null</v>
+      </c>
+      <c r="I42" s="3" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J42" s="3" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K42" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>Null</v>
+      </c>
+      <c r="L42" s="3" t="b">
+        <f>IF(D42-5 &lt;= 0, "Null")</f>
+        <v>0</v>
+      </c>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="3"/>
+      <c r="U42" s="3"/>
+      <c r="V42" s="3"/>
+      <c r="W42" s="3"/>
+      <c r="X42" s="3"/>
+      <c r="Y42" s="3"/>
+      <c r="Z42" s="3"/>
+      <c r="AA42" s="3"/>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D43" s="3">
+        <v>10</v>
+      </c>
+      <c r="E43" s="3">
+        <v>5</v>
+      </c>
+      <c r="F43" s="3">
+        <v>15</v>
+      </c>
+      <c r="G43" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H43" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Null</v>
+      </c>
+      <c r="I43" s="3" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J43" s="3" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K43" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>Null</v>
+      </c>
+      <c r="L43" s="3" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="3"/>
+      <c r="U43" s="3"/>
+      <c r="V43" s="3"/>
+      <c r="W43" s="3"/>
+      <c r="X43" s="3"/>
+      <c r="Y43" s="3"/>
+      <c r="Z43" s="3"/>
+      <c r="AA43" s="3"/>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D44" s="3">
+        <v>10</v>
+      </c>
+      <c r="E44" s="3">
+        <v>10</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Null</v>
+      </c>
+      <c r="H44" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Null</v>
+      </c>
+      <c r="I44" s="3" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J44" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Null</v>
+      </c>
+      <c r="K44" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>Null</v>
+      </c>
+      <c r="L44" s="3" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="3"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="3"/>
+      <c r="U44" s="3"/>
+      <c r="V44" s="3"/>
+      <c r="W44" s="3"/>
+      <c r="X44" s="3"/>
+      <c r="Y44" s="3"/>
+      <c r="Z44" s="3"/>
+      <c r="AA44" s="3"/>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D45" s="3">
+        <v>10</v>
+      </c>
+      <c r="E45" s="3">
+        <v>10</v>
+      </c>
+      <c r="F45" s="3">
+        <v>5</v>
+      </c>
+      <c r="G45" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Null</v>
+      </c>
+      <c r="H45" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Null</v>
+      </c>
+      <c r="I45" s="3" t="b">
+        <f>IF(E45+5 &gt;= 20, "Null")</f>
+        <v>0</v>
+      </c>
+      <c r="J45" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Null</v>
+      </c>
+      <c r="K45" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>Null</v>
+      </c>
+      <c r="L45" s="3" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="3"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="3"/>
+      <c r="U45" s="3"/>
+      <c r="V45" s="3"/>
+      <c r="W45" s="3"/>
+      <c r="X45" s="3"/>
+      <c r="Y45" s="3"/>
+      <c r="Z45" s="3"/>
+      <c r="AA45" s="3"/>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D46" s="3">
+        <v>10</v>
+      </c>
+      <c r="E46" s="3">
+        <v>10</v>
+      </c>
+      <c r="F46" s="3">
+        <v>10</v>
+      </c>
+      <c r="G46" s="3" t="str">
+        <f>IF(E46+10 &gt;= 20, "Null")</f>
+        <v>Null</v>
+      </c>
+      <c r="H46" s="3" t="str">
+        <f>IF(E46+15 &gt;= 20, "Null")</f>
+        <v>Null</v>
+      </c>
+      <c r="I46" s="3" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J46" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Null</v>
+      </c>
+      <c r="K46" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>Null</v>
+      </c>
+      <c r="L46" s="3" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="3"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="3"/>
+      <c r="U46" s="3"/>
+      <c r="V46" s="3"/>
+      <c r="W46" s="3"/>
+      <c r="X46" s="3"/>
+      <c r="Y46" s="3"/>
+      <c r="Z46" s="3"/>
+      <c r="AA46" s="3"/>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D47" s="3">
+        <v>10</v>
+      </c>
+      <c r="E47" s="3">
+        <v>10</v>
+      </c>
+      <c r="F47" s="3">
+        <v>15</v>
+      </c>
+      <c r="G47" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Null</v>
+      </c>
+      <c r="H47" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Null</v>
+      </c>
+      <c r="I47" s="3" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J47" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Null</v>
+      </c>
+      <c r="K47" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>Null</v>
+      </c>
+      <c r="L47" s="3" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+      <c r="P47" s="3"/>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="3"/>
+      <c r="S47" s="3"/>
+      <c r="T47" s="3"/>
+      <c r="U47" s="3"/>
+      <c r="V47" s="3"/>
+      <c r="W47" s="3"/>
+      <c r="X47" s="3"/>
+      <c r="Y47" s="3"/>
+      <c r="Z47" s="3"/>
+      <c r="AA47" s="3"/>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D48" s="3">
+        <v>10</v>
+      </c>
+      <c r="E48" s="3">
+        <v>15</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Null</v>
+      </c>
+      <c r="H48" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Null</v>
+      </c>
+      <c r="I48" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Null</v>
+      </c>
+      <c r="J48" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Null</v>
+      </c>
+      <c r="K48" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>Null</v>
+      </c>
+      <c r="L48" s="3" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
+      <c r="P48" s="3"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="3"/>
+      <c r="S48" s="3"/>
+      <c r="T48" s="3"/>
+      <c r="U48" s="3"/>
+      <c r="V48" s="3"/>
+      <c r="W48" s="3"/>
+      <c r="X48" s="3"/>
+      <c r="Y48" s="3"/>
+      <c r="Z48" s="3"/>
+      <c r="AA48" s="3"/>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D49" s="3">
+        <v>10</v>
+      </c>
+      <c r="E49" s="3">
+        <v>15</v>
+      </c>
+      <c r="F49" s="3">
+        <v>5</v>
+      </c>
+      <c r="G49" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Null</v>
+      </c>
+      <c r="H49" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Null</v>
+      </c>
+      <c r="I49" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Null</v>
+      </c>
+      <c r="J49" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Null</v>
+      </c>
+      <c r="K49" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>Null</v>
+      </c>
+      <c r="L49" s="3" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
+      <c r="P49" s="3"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="3"/>
+      <c r="S49" s="3"/>
+      <c r="T49" s="3"/>
+      <c r="U49" s="3"/>
+      <c r="V49" s="3"/>
+      <c r="W49" s="3"/>
+      <c r="X49" s="3"/>
+      <c r="Y49" s="3"/>
+      <c r="Z49" s="3"/>
+      <c r="AA49" s="3"/>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D50" s="3">
+        <v>10</v>
+      </c>
+      <c r="E50" s="3">
+        <v>15</v>
+      </c>
+      <c r="F50" s="3">
+        <v>10</v>
+      </c>
+      <c r="G50" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Null</v>
+      </c>
+      <c r="H50" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Null</v>
+      </c>
+      <c r="I50" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Null</v>
+      </c>
+      <c r="J50" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Null</v>
+      </c>
+      <c r="K50" s="3" t="str">
+        <f>IF(E50+15 &gt;= 20, "Null")</f>
+        <v>Null</v>
+      </c>
+      <c r="L50" s="3" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3"/>
+      <c r="R50" s="3"/>
+      <c r="S50" s="3"/>
+      <c r="T50" s="3"/>
+      <c r="U50" s="3"/>
+      <c r="V50" s="3"/>
+      <c r="W50" s="3"/>
+      <c r="X50" s="3"/>
+      <c r="Y50" s="3"/>
+      <c r="Z50" s="3"/>
+      <c r="AA50" s="3"/>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D51" s="3">
+        <v>10</v>
+      </c>
+      <c r="E51" s="3">
+        <v>15</v>
+      </c>
+      <c r="F51" s="3">
+        <v>15</v>
+      </c>
+      <c r="G51" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Null</v>
+      </c>
+      <c r="H51" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Null</v>
+      </c>
+      <c r="I51" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Null</v>
+      </c>
+      <c r="J51" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Null</v>
+      </c>
+      <c r="K51" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>Null</v>
+      </c>
+      <c r="L51" s="3" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
+      <c r="O51" s="3"/>
+      <c r="P51" s="3"/>
+      <c r="Q51" s="3"/>
+      <c r="R51" s="3"/>
+      <c r="S51" s="3"/>
+      <c r="T51" s="3"/>
+      <c r="U51" s="3"/>
+      <c r="V51" s="3"/>
+      <c r="W51" s="3"/>
+      <c r="X51" s="3"/>
+      <c r="Y51" s="3"/>
+      <c r="Z51" s="3"/>
+      <c r="AA51" s="3"/>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D52" s="3">
+        <v>15</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H52" s="3" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I52" s="3" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J52" s="3" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K52" s="3" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L52" s="3" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3"/>
+      <c r="P52" s="3"/>
+      <c r="Q52" s="3"/>
+      <c r="R52" s="3"/>
+      <c r="S52" s="3"/>
+      <c r="T52" s="3"/>
+      <c r="U52" s="3"/>
+      <c r="V52" s="3"/>
+      <c r="W52" s="3"/>
+      <c r="X52" s="3"/>
+      <c r="Y52" s="3"/>
+      <c r="Z52" s="3"/>
+      <c r="AA52" s="3"/>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D53" s="3">
+        <v>15</v>
+      </c>
+      <c r="E53" s="3">
+        <v>0</v>
+      </c>
+      <c r="F53" s="3">
+        <v>5</v>
+      </c>
+      <c r="G53" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H53" s="3" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I53" s="3" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J53" s="3" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K53" s="3" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L53" s="3" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="3"/>
+      <c r="P53" s="3"/>
+      <c r="Q53" s="3"/>
+      <c r="R53" s="3"/>
+      <c r="S53" s="3"/>
+      <c r="T53" s="3"/>
+      <c r="U53" s="3"/>
+      <c r="V53" s="3"/>
+      <c r="W53" s="3"/>
+      <c r="X53" s="3"/>
+      <c r="Y53" s="3"/>
+      <c r="Z53" s="3"/>
+      <c r="AA53" s="3"/>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D54" s="3">
+        <v>15</v>
+      </c>
+      <c r="E54" s="3">
+        <v>0</v>
+      </c>
+      <c r="F54" s="3">
+        <v>10</v>
+      </c>
+      <c r="G54" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H54" s="3" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I54" s="3" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J54" s="3" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K54" s="3" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L54" s="3" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
+      <c r="O54" s="3"/>
+      <c r="P54" s="3"/>
+      <c r="Q54" s="3"/>
+      <c r="R54" s="3"/>
+      <c r="S54" s="3"/>
+      <c r="T54" s="3"/>
+      <c r="U54" s="3"/>
+      <c r="V54" s="3"/>
+      <c r="W54" s="3"/>
+      <c r="X54" s="3"/>
+      <c r="Y54" s="3"/>
+      <c r="Z54" s="3"/>
+      <c r="AA54" s="3"/>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D55" s="3">
+        <v>15</v>
+      </c>
+      <c r="E55" s="3">
+        <v>0</v>
+      </c>
+      <c r="F55" s="3">
+        <v>15</v>
+      </c>
+      <c r="G55" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H55" s="3" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I55" s="3" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J55" s="3" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K55" s="3" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L55" s="3" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D56" s="3">
+        <v>15</v>
+      </c>
+      <c r="E56" s="3">
+        <v>5</v>
+      </c>
+      <c r="F56" s="3">
+        <v>0</v>
+      </c>
+      <c r="G56" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H56" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Null</v>
+      </c>
+      <c r="I56" s="3" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J56" s="3" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K56" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>Null</v>
+      </c>
+      <c r="L56" s="3" t="b">
+        <f>IF(D56-5 &lt;= 0, "Null")</f>
+        <v>0</v>
+      </c>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D57" s="3">
+        <v>15</v>
+      </c>
+      <c r="E57" s="3">
+        <v>5</v>
+      </c>
+      <c r="F57" s="3">
+        <v>5</v>
+      </c>
+      <c r="G57" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H57" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Null</v>
+      </c>
+      <c r="I57" s="3" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J57" s="3" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K57" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>Null</v>
+      </c>
+      <c r="L57" s="3" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M57" s="3"/>
+      <c r="N57" s="3"/>
+      <c r="O57" s="3"/>
+      <c r="P57" s="3"/>
+      <c r="Q57" s="3"/>
+      <c r="R57" s="3"/>
+      <c r="S57" s="3"/>
+      <c r="T57" s="3"/>
+      <c r="U57" s="3"/>
+      <c r="V57" s="3"/>
+      <c r="W57" s="3"/>
+      <c r="X57" s="3"/>
+      <c r="Y57" s="3"/>
+      <c r="Z57" s="3"/>
+      <c r="AA57" s="3"/>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D58" s="3">
+        <v>15</v>
+      </c>
+      <c r="E58" s="3">
+        <v>5</v>
+      </c>
+      <c r="F58" s="3">
+        <v>10</v>
+      </c>
+      <c r="G58" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H58" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Null</v>
+      </c>
+      <c r="I58" s="3" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J58" s="3" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K58" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>Null</v>
+      </c>
+      <c r="L58" s="3" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M58" s="3"/>
+      <c r="N58" s="3"/>
+      <c r="O58" s="3"/>
+      <c r="P58" s="3"/>
+      <c r="Q58" s="3"/>
+      <c r="R58" s="3"/>
+      <c r="S58" s="3"/>
+      <c r="T58" s="3"/>
+      <c r="U58" s="3"/>
+      <c r="V58" s="3"/>
+      <c r="W58" s="3"/>
+      <c r="X58" s="3"/>
+      <c r="Y58" s="3"/>
+      <c r="Z58" s="3"/>
+      <c r="AA58" s="3"/>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D59" s="3">
+        <v>15</v>
+      </c>
+      <c r="E59" s="3">
+        <v>5</v>
+      </c>
+      <c r="F59" s="3">
+        <v>15</v>
+      </c>
+      <c r="G59" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H59" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Null</v>
+      </c>
+      <c r="I59" s="3" t="b">
+        <f>IF(E59+5 &gt;= 20, "Null")</f>
+        <v>0</v>
+      </c>
+      <c r="J59" s="3" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K59" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>Null</v>
+      </c>
+      <c r="L59" s="3" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M59" s="3"/>
+      <c r="N59" s="3"/>
+      <c r="O59" s="3"/>
+      <c r="P59" s="3"/>
+      <c r="Q59" s="3"/>
+      <c r="R59" s="3"/>
+      <c r="S59" s="3"/>
+      <c r="T59" s="3"/>
+      <c r="U59" s="3"/>
+      <c r="V59" s="3"/>
+      <c r="W59" s="3"/>
+      <c r="X59" s="3"/>
+      <c r="Y59" s="3"/>
+      <c r="Z59" s="3"/>
+      <c r="AA59" s="3"/>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D60" s="3">
+        <v>15</v>
+      </c>
+      <c r="E60" s="3">
+        <v>10</v>
+      </c>
+      <c r="F60" s="3">
+        <v>0</v>
+      </c>
+      <c r="G60" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Null</v>
+      </c>
+      <c r="H60" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Null</v>
+      </c>
+      <c r="I60" s="3" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J60" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Null</v>
+      </c>
+      <c r="K60" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>Null</v>
+      </c>
+      <c r="L60" s="3" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M60" s="3"/>
+      <c r="N60" s="3"/>
+      <c r="O60" s="3"/>
+      <c r="P60" s="3"/>
+      <c r="Q60" s="3"/>
+      <c r="R60" s="3"/>
+      <c r="S60" s="3"/>
+      <c r="T60" s="3"/>
+      <c r="U60" s="3"/>
+      <c r="V60" s="3"/>
+      <c r="W60" s="3"/>
+      <c r="X60" s="3"/>
+      <c r="Y60" s="3"/>
+      <c r="Z60" s="3"/>
+      <c r="AA60" s="3"/>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D61" s="3">
+        <v>15</v>
+      </c>
+      <c r="E61" s="3">
+        <v>10</v>
+      </c>
+      <c r="F61" s="3">
+        <v>5</v>
+      </c>
+      <c r="G61" s="3" t="str">
+        <f>IF(E61+10 &gt;= 20, "Null")</f>
+        <v>Null</v>
+      </c>
+      <c r="H61" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Null</v>
+      </c>
+      <c r="I61" s="3" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J61" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Null</v>
+      </c>
+      <c r="K61" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>Null</v>
+      </c>
+      <c r="L61" s="3" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M61" s="3"/>
+      <c r="N61" s="3"/>
+      <c r="O61" s="3"/>
+      <c r="P61" s="3"/>
+      <c r="Q61" s="3"/>
+      <c r="R61" s="3"/>
+      <c r="S61" s="3"/>
+      <c r="T61" s="3"/>
+      <c r="U61" s="3"/>
+      <c r="V61" s="3"/>
+      <c r="W61" s="3"/>
+      <c r="X61" s="3"/>
+      <c r="Y61" s="3"/>
+      <c r="Z61" s="3"/>
+      <c r="AA61" s="3"/>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D62" s="3">
+        <v>15</v>
+      </c>
+      <c r="E62" s="3">
+        <v>10</v>
+      </c>
+      <c r="F62" s="3">
+        <v>10</v>
+      </c>
+      <c r="G62" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Null</v>
+      </c>
+      <c r="H62" s="3" t="str">
+        <f>IF(E62+15 &gt;= 20, "Null")</f>
+        <v>Null</v>
+      </c>
+      <c r="I62" s="3" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J62" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Null</v>
+      </c>
+      <c r="K62" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>Null</v>
+      </c>
+      <c r="L62" s="3" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M62" s="3"/>
+      <c r="N62" s="3"/>
+      <c r="O62" s="3"/>
+      <c r="P62" s="3"/>
+      <c r="Q62" s="3"/>
+      <c r="R62" s="3"/>
+      <c r="S62" s="3"/>
+      <c r="T62" s="3"/>
+      <c r="U62" s="3"/>
+      <c r="V62" s="3"/>
+      <c r="W62" s="3"/>
+      <c r="X62" s="3"/>
+      <c r="Y62" s="3"/>
+      <c r="Z62" s="3"/>
+      <c r="AA62" s="3"/>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D63" s="3">
+        <v>15</v>
+      </c>
+      <c r="E63" s="3">
+        <v>10</v>
+      </c>
+      <c r="F63" s="3">
+        <v>15</v>
+      </c>
+      <c r="G63" s="3" t="str">
+        <f>IF(E63+10 &gt;= 20, "Null")</f>
+        <v>Null</v>
+      </c>
+      <c r="H63" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Null</v>
+      </c>
+      <c r="I63" s="3" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J63" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Null</v>
+      </c>
+      <c r="K63" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>Null</v>
+      </c>
+      <c r="L63" s="3" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+      <c r="N63" s="3"/>
+      <c r="O63" s="3"/>
+      <c r="P63" s="3"/>
+      <c r="Q63" s="3"/>
+      <c r="R63" s="3"/>
+      <c r="S63" s="3"/>
+      <c r="T63" s="3"/>
+      <c r="U63" s="3"/>
+      <c r="V63" s="3"/>
+      <c r="W63" s="3"/>
+      <c r="X63" s="3"/>
+      <c r="Y63" s="3"/>
+      <c r="Z63" s="3"/>
+      <c r="AA63" s="3"/>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D64" s="3">
+        <v>15</v>
+      </c>
+      <c r="E64" s="3">
+        <v>15</v>
+      </c>
+      <c r="F64" s="3">
+        <v>0</v>
+      </c>
+      <c r="G64" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Null</v>
+      </c>
+      <c r="H64" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Null</v>
+      </c>
+      <c r="I64" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Null</v>
+      </c>
+      <c r="J64" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Null</v>
+      </c>
+      <c r="K64" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>Null</v>
+      </c>
+      <c r="L64" s="3" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+      <c r="N64" s="3"/>
+      <c r="O64" s="3"/>
+      <c r="P64" s="3"/>
+      <c r="Q64" s="3"/>
+      <c r="R64" s="3"/>
+      <c r="S64" s="3"/>
+      <c r="T64" s="3"/>
+      <c r="U64" s="3"/>
+      <c r="V64" s="3"/>
+      <c r="W64" s="3"/>
+      <c r="X64" s="3"/>
+      <c r="Y64" s="3"/>
+      <c r="Z64" s="3"/>
+      <c r="AA64" s="3"/>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D65" s="3">
+        <v>15</v>
+      </c>
+      <c r="E65" s="3">
+        <v>15</v>
+      </c>
+      <c r="F65" s="3">
+        <v>5</v>
+      </c>
+      <c r="G65" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Null</v>
+      </c>
+      <c r="H65" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Null</v>
+      </c>
+      <c r="I65" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Null</v>
+      </c>
+      <c r="J65" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Null</v>
+      </c>
+      <c r="K65" s="3" t="str">
+        <f>IF(E65+15 &gt;= 20, "Null")</f>
+        <v>Null</v>
+      </c>
+      <c r="L65" s="3" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+      <c r="N65" s="3"/>
+      <c r="O65" s="3"/>
+      <c r="P65" s="3"/>
+      <c r="Q65" s="3"/>
+      <c r="R65" s="3"/>
+      <c r="S65" s="3"/>
+      <c r="T65" s="3"/>
+      <c r="U65" s="3"/>
+      <c r="V65" s="3"/>
+      <c r="W65" s="3"/>
+      <c r="X65" s="3"/>
+      <c r="Y65" s="3"/>
+      <c r="Z65" s="3"/>
+      <c r="AA65" s="3"/>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D66" s="3">
+        <v>15</v>
+      </c>
+      <c r="E66" s="3">
+        <v>15</v>
+      </c>
+      <c r="F66" s="3">
+        <v>10</v>
+      </c>
+      <c r="G66" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Null</v>
+      </c>
+      <c r="H66" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Null</v>
+      </c>
+      <c r="I66" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Null</v>
+      </c>
+      <c r="J66" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Null</v>
+      </c>
+      <c r="K66" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>Null</v>
+      </c>
+      <c r="L66" s="3" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M66" s="3"/>
+      <c r="N66" s="3"/>
+      <c r="O66" s="3"/>
+      <c r="P66" s="3"/>
+      <c r="Q66" s="3"/>
+      <c r="R66" s="3"/>
+      <c r="S66" s="3"/>
+      <c r="T66" s="3"/>
+      <c r="U66" s="3"/>
+      <c r="V66" s="3"/>
+      <c r="W66" s="3"/>
+      <c r="X66" s="3"/>
+      <c r="Y66" s="3"/>
+      <c r="Z66" s="3"/>
+      <c r="AA66" s="3"/>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D67" s="3">
+        <v>15</v>
+      </c>
+      <c r="E67" s="3">
+        <v>15</v>
+      </c>
+      <c r="F67" s="3">
+        <v>15</v>
+      </c>
+      <c r="G67" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Null</v>
+      </c>
+      <c r="H67" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Null</v>
+      </c>
+      <c r="I67" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Null</v>
+      </c>
+      <c r="J67" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Null</v>
+      </c>
+      <c r="K67" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>Null</v>
+      </c>
+      <c r="L67" s="3" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D68" s="3">
+        <v>0</v>
+      </c>
+      <c r="E68" s="3">
+        <v>0</v>
+      </c>
+      <c r="F68" s="3">
+        <v>0</v>
+      </c>
+      <c r="G68" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H68" s="3" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I68" s="3" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J68" s="3" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K68" s="3" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L68" s="3" t="str">
+        <f>IF(D68-5 &lt;= 0, "Null")</f>
+        <v>Null</v>
+      </c>
+      <c r="M68" s="3"/>
+      <c r="N68" s="3"/>
+      <c r="O68" s="3"/>
+      <c r="P68" s="3"/>
+      <c r="Q68" s="3"/>
+      <c r="R68" s="3"/>
+      <c r="S68" s="3"/>
+      <c r="T68" s="3"/>
+      <c r="U68" s="3"/>
+      <c r="V68" s="3"/>
+      <c r="W68" s="3"/>
+      <c r="X68" s="3"/>
+      <c r="Y68" s="3"/>
+      <c r="Z68" s="3"/>
+      <c r="AA68" s="3"/>
+    </row>
+    <row r="69" spans="1:27" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" spans="1:27" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" spans="1:27" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" spans="1:27" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" spans="1:27" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" spans="1:27" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="1:27" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" spans="1:27" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="1:27" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="1:27" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="1:27" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="1:27" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" spans="7:7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G82" s="3"/>
+    </row>
+    <row r="83" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G83" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="X4:Y4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/DFA.xlsx
+++ b/DFA.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="113">
   <si>
     <t>Hygiene</t>
   </si>
@@ -318,6 +318,51 @@
   </si>
   <si>
     <t>Tangan</t>
+  </si>
+  <si>
+    <t>E+10</t>
+  </si>
+  <si>
+    <t>E+15</t>
+  </si>
+  <si>
+    <t>E+5</t>
+  </si>
+  <si>
+    <t>H-5</t>
+  </si>
+  <si>
+    <t>H-10, E+5</t>
+  </si>
+  <si>
+    <t>H-5, E+10</t>
+  </si>
+  <si>
+    <t>H+5</t>
+  </si>
+  <si>
+    <t>H+10, E-5</t>
+  </si>
+  <si>
+    <t>H-5, E-10, F+15</t>
+  </si>
+  <si>
+    <t>E-10, F+10</t>
+  </si>
+  <si>
+    <t>E-10, F+15</t>
+  </si>
+  <si>
+    <t>H+15, E-5</t>
+  </si>
+  <si>
+    <t>E-5, F+15</t>
+  </si>
+  <si>
+    <t>E-5, F+5</t>
+  </si>
+  <si>
+    <t>E-5, F+10</t>
   </si>
 </sst>
 </file>
@@ -398,7 +443,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -481,17 +526,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -508,7 +542,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -543,19 +577,22 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -579,7 +616,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -863,11 +900,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A3:W88"/>
+  <dimension ref="A3:W89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -881,80 +916,86 @@
     <col min="8" max="8" width="13.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="9.140625" style="1"/>
     <col min="10" max="10" width="21" style="1" customWidth="1"/>
-    <col min="11" max="14" width="9.140625" style="1"/>
-    <col min="15" max="15" width="9.140625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="15.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="16" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="1"/>
+    <col min="15" max="15" width="16.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="20.5703125" style="1" customWidth="1"/>
     <col min="17" max="17" width="15.7109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="12" style="1" customWidth="1"/>
-    <col min="19" max="20" width="9.140625" style="1"/>
-    <col min="21" max="21" width="24.140625" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="12.28515625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="28.28515625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="15.7109375" style="1" customWidth="1"/>
+    <col min="23" max="23" width="16.7109375" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="17" t="s">
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="19" t="s">
+      <c r="G3" s="19"/>
+      <c r="H3" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="20"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="17" t="s">
+      <c r="I3" s="21"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="22"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="19" t="s">
+      <c r="L3" s="23"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="21"/>
+      <c r="O3" s="22"/>
       <c r="P3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="13" t="s">
+      <c r="Q3" s="12" t="s">
         <v>13</v>
       </c>
       <c r="R3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="23" t="s">
+      <c r="S3" s="24" t="s">
         <v>16</v>
       </c>
       <c r="T3" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="U3" s="13" t="s">
+      <c r="U3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="V3" s="17" t="s">
+      <c r="V3" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="W3" s="18"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W3" s="19"/>
+    </row>
+    <row r="4" spans="1:23" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="13" t="s">
         <v>22</v>
       </c>
       <c r="G4" s="11" t="s">
@@ -984,20 +1025,20 @@
       <c r="O4" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="P4" s="15" t="s">
+      <c r="P4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="Q4" s="16" t="s">
+      <c r="Q4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="R4" s="15" t="s">
+      <c r="R4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="S4" s="24"/>
-      <c r="T4" s="15" t="s">
+      <c r="S4" s="25"/>
+      <c r="T4" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="U4" s="16" t="s">
+      <c r="U4" s="15" t="s">
         <v>18</v>
       </c>
       <c r="V4" s="11" t="s">
@@ -1007,169 +1048,150 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:23" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="P5" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q5" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="R5" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="S5" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="T5" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="U5" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="V5" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="W5" s="11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B6" s="5" t="s">
         <v>5</v>
-      </c>
-      <c r="C5" s="6">
-        <v>0</v>
-      </c>
-      <c r="D5" s="6">
-        <v>10</v>
-      </c>
-      <c r="E5" s="6">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4" t="str">
-        <f>IF(D5+10 &gt;= 20, "-")</f>
-        <v>-</v>
-      </c>
-      <c r="G5" s="4" t="str">
-        <f>IF(D5+15 &gt;= 20, "-")</f>
-        <v>-</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" s="6" t="str">
-        <f>IF(D5+10&gt;= 20, "-")</f>
-        <v>-</v>
-      </c>
-      <c r="J5" s="6" t="str">
-        <f>IF(D5+15 &gt;= 20, "-")</f>
-        <v>-</v>
-      </c>
-      <c r="K5" s="4" t="str">
-        <f>IF(C5-5 &lt;= -5, "-")</f>
-        <v>-</v>
-      </c>
-      <c r="L5" s="4" t="str">
-        <f>IF(OR(D5+5&gt;=20,C5-10&lt;=-5),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="M5" s="4" t="str">
-        <f>IF(OR(D5+10&gt;=20,C5-5&lt;=-5),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="P5" s="4" t="str">
-        <f>IF(OR(C5-5 &lt;= -5, D5 - 10 &lt;= -5, E5+15 &gt;= 20),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="Q5" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="R5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="S5" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="T5" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="U5" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="V5" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="W5" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="C6" s="6">
         <v>0</v>
       </c>
       <c r="D6" s="6">
+        <v>10</v>
+      </c>
+      <c r="E6" s="6">
         <v>0</v>
       </c>
-      <c r="E6" s="6">
-        <v>5</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>43</v>
+      <c r="F6" s="4" t="str">
+        <f>IF(D6+10 &gt;= 20, "-")</f>
+        <v>-</v>
+      </c>
+      <c r="G6" s="4" t="str">
+        <f>IF(D6+15 &gt;= 20, "-")</f>
+        <v>-</v>
       </c>
       <c r="H6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="6" t="str">
+        <f>IF(D6+10&gt;= 20, "-")</f>
+        <v>-</v>
+      </c>
+      <c r="J6" s="6" t="str">
+        <f>IF(D6+15 &gt;= 20, "-")</f>
+        <v>-</v>
+      </c>
+      <c r="K6" s="4" t="str">
+        <f>IF(C6-5 &lt;= -5, "-")</f>
+        <v>-</v>
+      </c>
+      <c r="L6" s="4" t="str">
+        <f>IF(OR(D6+5&gt;=20,C6-10&lt;=-5),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="M6" s="4" t="str">
+        <f>IF(OR(D6+10&gt;=20,C6-5&lt;=-5),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="P6" s="4" t="str">
+        <f>IF(OR(C6-5 &lt;= -5, D6 - 10 &lt;= -5, E6+15 &gt;= 20),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S6" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="U6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="V6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="K6" s="4" t="str">
-        <f t="shared" ref="K6:K68" si="0">IF(C6-5 &lt;= -5, "-")</f>
-        <v>-</v>
-      </c>
-      <c r="L6" s="4" t="str">
-        <f t="shared" ref="L6:L68" si="1">IF(OR(D6+5&gt;=20,C6-10&lt;=-5),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="M6" s="4" t="str">
-        <f t="shared" ref="M6:M68" si="2">IF(OR(D6+10&gt;=20,C6-5&lt;=-5),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="O6" s="6" t="str">
-        <f t="shared" ref="O6:O68" si="3">IF(OR(D6-5&lt;=-5,C6+10&gt;=20),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="P6" s="4" t="str">
-        <f t="shared" ref="P6:P68" si="4">IF(OR(C6-5 &lt;= -5, D6 - 10 &lt;= -5, E6+15 &gt;= 20),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="Q6" s="6" t="str">
-        <f t="shared" ref="Q6:Q68" si="5">IF(OR(D6 - 10 &lt;= -5, E6+10 &gt;= 20),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="R6" s="4" t="str">
-        <f t="shared" ref="R6:R68" si="6">IF(OR(D6 - 10 &lt;= -5, E6+15 &gt;= 20),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="S6" s="6" t="str">
-        <f t="shared" ref="S6:S68" si="7">IF(OR(C6 + 15 &gt;= 20, D6-5 &lt;= -5),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="T6" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="U6" s="6" t="str">
-        <f t="shared" ref="U6:U68" si="8">IF(OR(D6 - 5 &lt;= -5, E6+10 &gt;= 20),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="V6" s="4" t="str">
-        <f t="shared" ref="V6:V68" si="9">IF(OR(D6 - 5 &lt;= -5, E6+5 &gt;= 20),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="W6" s="4" t="str">
-        <f t="shared" ref="W6:W68" si="10">IF(OR(D6 - 5 &lt;= -5, E6+10 &gt;= 20),"-")</f>
-        <v>-</v>
+      <c r="W6" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="6">
         <v>0</v>
@@ -1178,78 +1200,78 @@
         <v>0</v>
       </c>
       <c r="E7" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K7" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="K7:K69" si="0">IF(C7-5 &lt;= -5, "-")</f>
         <v>-</v>
       </c>
       <c r="L7" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="L7:L69" si="1">IF(OR(D7+5&gt;=20,C7-10&lt;=-5),"-")</f>
         <v>-</v>
       </c>
       <c r="M7" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="M7:M69" si="2">IF(OR(D7+10&gt;=20,C7-5&lt;=-5),"-")</f>
         <v>-</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="O7" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="O7:O69" si="3">IF(OR(D7-5&lt;=-5,C7+10&gt;=20),"-")</f>
         <v>-</v>
       </c>
       <c r="P7" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="P7:P69" si="4">IF(OR(C7-5 &lt;= -5, D7 - 10 &lt;= -5, E7+15 &gt;= 20),"-")</f>
         <v>-</v>
       </c>
       <c r="Q7" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="Q7:Q69" si="5">IF(OR(D7 - 10 &lt;= -5, E7+10 &gt;= 20),"-")</f>
         <v>-</v>
       </c>
       <c r="R7" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="R7:R69" si="6">IF(OR(D7 - 10 &lt;= -5, E7+15 &gt;= 20),"-")</f>
         <v>-</v>
       </c>
       <c r="S7" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="S7:S69" si="7">IF(OR(C7 + 15 &gt;= 20, D7-5 &lt;= -5),"-")</f>
         <v>-</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="U7" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="U7:U69" si="8">IF(OR(D7 - 5 &lt;= -5, E7+10 &gt;= 20),"-")</f>
         <v>-</v>
       </c>
       <c r="V7" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="V7:V69" si="9">IF(OR(D7 - 5 &lt;= -5, E7+5 &gt;= 20),"-")</f>
         <v>-</v>
       </c>
       <c r="W7" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="W7:W69" si="10">IF(OR(D7 - 5 &lt;= -5, E7+10 &gt;= 20),"-")</f>
         <v>-</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="6">
         <v>0</v>
@@ -1258,22 +1280,22 @@
         <v>0</v>
       </c>
       <c r="E8" s="6">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K8" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1288,7 +1310,7 @@
         <v>-</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="O8" s="6" t="str">
         <f t="shared" si="3"/>
@@ -1311,7 +1333,7 @@
         <v>-</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="U8" s="6" t="str">
         <f t="shared" si="8"/>
@@ -1329,33 +1351,31 @@
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" s="6">
         <v>0</v>
       </c>
       <c r="D9" s="6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E9" s="6">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="4" t="str">
-        <f t="shared" ref="G9:G67" si="11">IF(D9+15 &gt;= 20, "-")</f>
-        <v>-</v>
+        <v>41</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="J9" s="6" t="str">
-        <f t="shared" ref="J9:J67" si="12">IF(D9+15 &gt;= 20, "-")</f>
-        <v>-</v>
+        <v>41</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="K9" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1370,10 +1390,11 @@
         <v>-</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="O9" s="6" t="s">
-        <v>62</v>
+        <v>48</v>
+      </c>
+      <c r="O9" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
       </c>
       <c r="P9" s="4" t="str">
         <f t="shared" si="4"/>
@@ -1387,26 +1408,30 @@
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
-      <c r="S9" s="6" t="s">
-        <v>78</v>
+      <c r="S9" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="U9" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="V9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="W9" s="4" t="s">
-        <v>33</v>
+        <v>48</v>
+      </c>
+      <c r="U9" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+      <c r="V9" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>-</v>
+      </c>
+      <c r="W9" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>-</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" s="6">
         <v>0</v>
@@ -1415,23 +1440,23 @@
         <v>5</v>
       </c>
       <c r="E10" s="6">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="4" t="str">
+        <f t="shared" ref="G10:G68" si="11">IF(D10+15 &gt;= 20, "-")</f>
+        <v>-</v>
+      </c>
+      <c r="H10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>-</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>39</v>
-      </c>
       <c r="I10" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J10" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="J10:J68" si="12">IF(D10+15 &gt;= 20, "-")</f>
         <v>-</v>
       </c>
       <c r="K10" s="4" t="str">
@@ -1447,10 +1472,10 @@
         <v>-</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P10" s="4" t="str">
         <f t="shared" si="4"/>
@@ -1465,25 +1490,25 @@
         <v>-</v>
       </c>
       <c r="S10" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T10" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="U10" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="W10" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="W10" s="4" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" s="6">
         <v>0</v>
@@ -1492,20 +1517,20 @@
         <v>5</v>
       </c>
       <c r="E11" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G11" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J11" s="6" t="str">
         <f t="shared" si="12"/>
@@ -1524,10 +1549,10 @@
         <v>-</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P11" s="4" t="str">
         <f t="shared" si="4"/>
@@ -1542,27 +1567,25 @@
         <v>-</v>
       </c>
       <c r="S11" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T11" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="U11" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
+        <v>51</v>
+      </c>
+      <c r="U11" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="V11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="W11" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="W11" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>-</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C12" s="6">
         <v>0</v>
@@ -1571,20 +1594,20 @@
         <v>5</v>
       </c>
       <c r="E12" s="6">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G12" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J12" s="6" t="str">
         <f t="shared" si="12"/>
@@ -1603,10 +1626,10 @@
         <v>-</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P12" s="4" t="str">
         <f t="shared" si="4"/>
@@ -1621,18 +1644,17 @@
         <v>-</v>
       </c>
       <c r="S12" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="T12" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U12" s="6" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="V12" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>-</v>
+      <c r="V12" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="W12" s="4" t="str">
         <f t="shared" si="10"/>
@@ -1642,31 +1664,29 @@
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" s="6">
         <v>0</v>
       </c>
       <c r="D13" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E13" s="6">
-        <v>5</v>
-      </c>
-      <c r="F13" s="4" t="str">
-        <f>IF(D13+10 &gt;= 20, "-")</f>
-        <v>-</v>
+        <v>15</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="G13" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I13" s="6" t="str">
-        <f t="shared" ref="I13:I67" si="13">IF(D13+10&gt;= 20, "-")</f>
-        <v>-</v>
+        <v>41</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="J13" s="6" t="str">
         <f t="shared" si="12"/>
@@ -1685,42 +1705,46 @@
         <v>-</v>
       </c>
       <c r="N13" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="P13" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="Q13" s="6" t="s">
-        <v>34</v>
+      <c r="Q13" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
       </c>
       <c r="R13" s="4" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
       <c r="S13" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="T13" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="U13" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="V13" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="W13" s="4" t="s">
-        <v>38</v>
+        <v>53</v>
+      </c>
+      <c r="U13" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+      <c r="V13" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>-</v>
+      </c>
+      <c r="W13" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>-</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" s="6">
         <v>0</v>
@@ -1729,10 +1753,10 @@
         <v>10</v>
       </c>
       <c r="E14" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F14" s="4" t="str">
-        <f t="shared" ref="F14:F19" si="14">IF(D14+10 &gt;= 20, "-")</f>
+        <f>IF(D14+10 &gt;= 20, "-")</f>
         <v>-</v>
       </c>
       <c r="G14" s="4" t="str">
@@ -1740,10 +1764,10 @@
         <v>-</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I14" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="I14:I68" si="13">IF(D14+10&gt;= 20, "-")</f>
         <v>-</v>
       </c>
       <c r="J14" s="6" t="str">
@@ -1763,45 +1787,42 @@
         <v>-</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P14" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="Q14" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
+      <c r="Q14" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="R14" s="4" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
       <c r="S14" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T14" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="U14" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
+        <v>55</v>
+      </c>
+      <c r="U14" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="V14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="W14" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="W14" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>-</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" s="6">
         <v>0</v>
@@ -1810,10 +1831,10 @@
         <v>10</v>
       </c>
       <c r="E15" s="6">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F15" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="F15:F20" si="14">IF(D15+10 &gt;= 20, "-")</f>
         <v>-</v>
       </c>
       <c r="G15" s="4" t="str">
@@ -1821,7 +1842,7 @@
         <v>-</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I15" s="6" t="str">
         <f t="shared" si="13"/>
@@ -1844,10 +1865,10 @@
         <v>-</v>
       </c>
       <c r="N15" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O15" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P15" s="4" t="str">
         <f t="shared" si="4"/>
@@ -1862,18 +1883,17 @@
         <v>-</v>
       </c>
       <c r="S15" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="T15" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U15" s="6" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="V15" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>-</v>
+      <c r="V15" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="W15" s="4" t="str">
         <f t="shared" si="10"/>
@@ -1883,16 +1903,16 @@
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" s="6">
         <v>0</v>
       </c>
       <c r="D16" s="6">
+        <v>10</v>
+      </c>
+      <c r="E16" s="6">
         <v>15</v>
-      </c>
-      <c r="E16" s="6">
-        <v>0</v>
       </c>
       <c r="F16" s="4" t="str">
         <f t="shared" si="14"/>
@@ -1902,9 +1922,8 @@
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
-      <c r="H16" s="6" t="str">
-        <f t="shared" ref="H16:H67" si="15">IF(D16+5 &gt;= 20, "-")</f>
-        <v>-</v>
+      <c r="H16" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="I16" s="6" t="str">
         <f t="shared" si="13"/>
@@ -1927,41 +1946,46 @@
         <v>-</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P16" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="Q16" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="R16" s="4" t="s">
-        <v>38</v>
+      <c r="Q16" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="R16" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>-</v>
       </c>
       <c r="S16" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="T16" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="U16" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="V16" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="W16" s="4" t="s">
-        <v>40</v>
+        <v>57</v>
+      </c>
+      <c r="U16" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+      <c r="V16" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>-</v>
+      </c>
+      <c r="W16" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>-</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C17" s="6">
         <v>0</v>
@@ -1970,7 +1994,7 @@
         <v>15</v>
       </c>
       <c r="E17" s="6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F17" s="4" t="str">
         <f t="shared" si="14"/>
@@ -1981,7 +2005,7 @@
         <v>-</v>
       </c>
       <c r="H17" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="H17:H68" si="15">IF(D17+5 &gt;= 20, "-")</f>
         <v>-</v>
       </c>
       <c r="I17" s="6" t="str">
@@ -2005,42 +2029,41 @@
         <v>-</v>
       </c>
       <c r="N17" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O17" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P17" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="Q17" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="R17" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="R17" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>-</v>
-      </c>
       <c r="S17" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T17" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U17" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="W17" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="W17" s="4" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C18" s="6">
         <v>0</v>
@@ -2049,7 +2072,7 @@
         <v>15</v>
       </c>
       <c r="E18" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F18" s="4" t="str">
         <f t="shared" si="14"/>
@@ -2084,45 +2107,42 @@
         <v>-</v>
       </c>
       <c r="N18" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O18" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P18" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="Q18" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
+      <c r="Q18" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="R18" s="4" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
       <c r="S18" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T18" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="U18" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
+        <v>59</v>
+      </c>
+      <c r="U18" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="V18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="W18" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="W18" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>-</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C19" s="6">
         <v>0</v>
@@ -2131,7 +2151,7 @@
         <v>15</v>
       </c>
       <c r="E19" s="6">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F19" s="4" t="str">
         <f t="shared" si="14"/>
@@ -2166,10 +2186,10 @@
         <v>-</v>
       </c>
       <c r="N19" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O19" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P19" s="4" t="str">
         <f t="shared" si="4"/>
@@ -2184,18 +2204,17 @@
         <v>-</v>
       </c>
       <c r="S19" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T19" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U19" s="6" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="V19" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>-</v>
+      <c r="V19" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="W19" s="4" t="str">
         <f t="shared" si="10"/>
@@ -2205,48 +2224,54 @@
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C20" s="6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D20" s="6">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E20" s="6">
-        <v>0</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>94</v>
+        <v>15</v>
+      </c>
+      <c r="F20" s="4" t="str">
+        <f t="shared" si="14"/>
+        <v>-</v>
+      </c>
+      <c r="G20" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>-</v>
+      </c>
+      <c r="H20" s="6" t="str">
+        <f t="shared" si="15"/>
+        <v>-</v>
+      </c>
+      <c r="I20" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>-</v>
+      </c>
+      <c r="J20" s="6" t="str">
+        <f t="shared" si="12"/>
+        <v>-</v>
+      </c>
+      <c r="K20" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
       </c>
       <c r="L20" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="M20" s="4" t="s">
-        <v>5</v>
+      <c r="M20" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="O20" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
+        <v>61</v>
+      </c>
+      <c r="O20" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="P20" s="4" t="str">
         <f t="shared" si="4"/>
@@ -2260,12 +2285,11 @@
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
-      <c r="S20" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
+      <c r="S20" s="6" t="s">
+        <v>89</v>
       </c>
       <c r="T20" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U20" s="6" t="str">
         <f t="shared" si="8"/>
@@ -2283,7 +2307,7 @@
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C21" s="6">
         <v>5</v>
@@ -2292,35 +2316,35 @@
         <v>0</v>
       </c>
       <c r="E21" s="6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="L21" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="N21" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O21" s="6" t="str">
         <f t="shared" si="3"/>
@@ -2343,7 +2367,7 @@
         <v>-</v>
       </c>
       <c r="T21" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="U21" s="6" t="str">
         <f t="shared" si="8"/>
@@ -2361,7 +2385,7 @@
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C22" s="6">
         <v>5</v>
@@ -2370,35 +2394,35 @@
         <v>0</v>
       </c>
       <c r="E22" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L22" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N22" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O22" s="6" t="str">
         <f t="shared" si="3"/>
@@ -2421,7 +2445,7 @@
         <v>-</v>
       </c>
       <c r="T22" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="U22" s="6" t="str">
         <f t="shared" si="8"/>
@@ -2439,7 +2463,7 @@
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C23" s="6">
         <v>5</v>
@@ -2448,35 +2472,35 @@
         <v>0</v>
       </c>
       <c r="E23" s="6">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L23" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N23" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O23" s="6" t="str">
         <f t="shared" si="3"/>
@@ -2499,7 +2523,7 @@
         <v>-</v>
       </c>
       <c r="T23" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U23" s="6" t="str">
         <f t="shared" si="8"/>
@@ -2517,49 +2541,48 @@
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24" s="6">
         <v>5</v>
       </c>
       <c r="D24" s="6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E24" s="6">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G24" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>-</v>
+        <v>57</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="J24" s="6" t="str">
-        <f t="shared" si="12"/>
-        <v>-</v>
+        <v>57</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L24" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N24" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="O24" s="6" t="s">
-        <v>78</v>
+        <v>65</v>
+      </c>
+      <c r="O24" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
       </c>
       <c r="P24" s="4" t="str">
         <f t="shared" si="4"/>
@@ -2578,22 +2601,25 @@
         <v>-</v>
       </c>
       <c r="T24" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="U24" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="V24" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="W24" s="4" t="s">
-        <v>50</v>
+        <v>65</v>
+      </c>
+      <c r="U24" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+      <c r="V24" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>-</v>
+      </c>
+      <c r="W24" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>-</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C25" s="6">
         <v>5</v>
@@ -2602,40 +2628,40 @@
         <v>5</v>
       </c>
       <c r="E25" s="6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G25" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J25" s="6" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L25" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N25" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O25" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P25" s="4" t="str">
         <f t="shared" si="4"/>
@@ -2654,22 +2680,22 @@
         <v>-</v>
       </c>
       <c r="T25" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="U25" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="V25" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="W25" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="W25" s="4" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C26" s="6">
         <v>5</v>
@@ -2678,40 +2704,40 @@
         <v>5</v>
       </c>
       <c r="E26" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G26" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J26" s="6" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L26" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N26" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O26" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P26" s="4" t="str">
         <f t="shared" si="4"/>
@@ -2730,24 +2756,22 @@
         <v>-</v>
       </c>
       <c r="T26" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="U26" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
+        <v>67</v>
+      </c>
+      <c r="U26" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="V26" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="W26" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="W26" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>-</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C27" s="6">
         <v>5</v>
@@ -2756,40 +2780,40 @@
         <v>5</v>
       </c>
       <c r="E27" s="6">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G27" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J27" s="6" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L27" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N27" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O27" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P27" s="4" t="str">
         <f t="shared" si="4"/>
@@ -2808,15 +2832,14 @@
         <v>-</v>
       </c>
       <c r="T27" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="U27" s="6" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="V27" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>-</v>
+      <c r="V27" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="W27" s="4" t="str">
         <f t="shared" si="10"/>
@@ -2826,83 +2849,86 @@
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C28" s="6">
         <v>5</v>
       </c>
       <c r="D28" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E28" s="6">
-        <v>0</v>
-      </c>
-      <c r="F28" s="4" t="str">
-        <f>IF(D28+10 &gt;= 20, "-")</f>
-        <v>-</v>
+        <v>15</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="G28" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="I28" s="6" t="str">
-        <f t="shared" si="13"/>
-        <v>-</v>
+        <v>57</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="J28" s="6" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="L28" s="4" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="M28" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
+      <c r="M28" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="N28" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O28" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="P28" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q28" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="R28" s="4" t="s">
-        <v>48</v>
+        <v>81</v>
+      </c>
+      <c r="P28" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="Q28" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="R28" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>-</v>
       </c>
       <c r="S28" s="6" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
       <c r="T28" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="U28" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="V28" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="W28" s="4" t="s">
-        <v>52</v>
+        <v>69</v>
+      </c>
+      <c r="U28" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+      <c r="V28" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>-</v>
+      </c>
+      <c r="W28" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>-</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C29" s="6">
         <v>5</v>
@@ -2911,10 +2937,10 @@
         <v>10</v>
       </c>
       <c r="E29" s="6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F29" s="4" t="str">
-        <f t="shared" ref="F29:F34" si="16">IF(D29+10 &gt;= 20, "-")</f>
+        <f>IF(D29+10 &gt;= 20, "-")</f>
         <v>-</v>
       </c>
       <c r="G29" s="4" t="str">
@@ -2922,7 +2948,7 @@
         <v>-</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I29" s="6" t="str">
         <f t="shared" si="13"/>
@@ -2933,7 +2959,7 @@
         <v>-</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="L29" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2944,43 +2970,41 @@
         <v>-</v>
       </c>
       <c r="N29" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O29" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="P29" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
+        <v>82</v>
+      </c>
+      <c r="P29" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="Q29" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="R29" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="R29" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>-</v>
       </c>
       <c r="S29" s="6" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
       <c r="T29" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U29" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V29" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="W29" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="W29" s="4" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C30" s="6">
         <v>5</v>
@@ -2989,10 +3013,10 @@
         <v>10</v>
       </c>
       <c r="E30" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F30" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="F30:F35" si="16">IF(D30+10 &gt;= 20, "-")</f>
         <v>-</v>
       </c>
       <c r="G30" s="4" t="str">
@@ -3000,7 +3024,7 @@
         <v>-</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I30" s="6" t="str">
         <f t="shared" si="13"/>
@@ -3011,7 +3035,7 @@
         <v>-</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L30" s="4" t="str">
         <f t="shared" si="1"/>
@@ -3022,18 +3046,17 @@
         <v>-</v>
       </c>
       <c r="N30" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O30" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P30" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="Q30" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
+      <c r="Q30" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="R30" s="4" t="str">
         <f t="shared" si="6"/>
@@ -3044,24 +3067,22 @@
         <v>-</v>
       </c>
       <c r="T30" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="U30" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
+        <v>71</v>
+      </c>
+      <c r="U30" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="V30" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="W30" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="W30" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>-</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C31" s="6">
         <v>5</v>
@@ -3070,7 +3091,7 @@
         <v>10</v>
       </c>
       <c r="E31" s="6">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F31" s="4" t="str">
         <f t="shared" si="16"/>
@@ -3081,7 +3102,7 @@
         <v>-</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I31" s="6" t="str">
         <f t="shared" si="13"/>
@@ -3092,7 +3113,7 @@
         <v>-</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L31" s="4" t="str">
         <f t="shared" si="1"/>
@@ -3103,10 +3124,10 @@
         <v>-</v>
       </c>
       <c r="N31" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O31" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P31" s="4" t="str">
         <f t="shared" si="4"/>
@@ -3125,15 +3146,14 @@
         <v>-</v>
       </c>
       <c r="T31" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U31" s="6" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="V31" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>-</v>
+      <c r="V31" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="W31" s="4" t="str">
         <f t="shared" si="10"/>
@@ -3143,16 +3163,16 @@
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C32" s="6">
         <v>5</v>
       </c>
       <c r="D32" s="6">
+        <v>10</v>
+      </c>
+      <c r="E32" s="6">
         <v>15</v>
-      </c>
-      <c r="E32" s="6">
-        <v>0</v>
       </c>
       <c r="F32" s="4" t="str">
         <f t="shared" si="16"/>
@@ -3162,9 +3182,8 @@
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
-      <c r="H32" s="6" t="str">
-        <f t="shared" si="15"/>
-        <v>-</v>
+      <c r="H32" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="I32" s="6" t="str">
         <f t="shared" si="13"/>
@@ -3175,7 +3194,7 @@
         <v>-</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L32" s="4" t="str">
         <f t="shared" si="1"/>
@@ -3186,41 +3205,47 @@
         <v>-</v>
       </c>
       <c r="N32" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O32" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="P32" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q32" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="R32" s="4" t="s">
-        <v>53</v>
+        <v>85</v>
+      </c>
+      <c r="P32" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="Q32" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="R32" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>-</v>
       </c>
       <c r="S32" s="6" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
       <c r="T32" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="U32" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="V32" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="W32" s="4" t="s">
-        <v>56</v>
+        <v>73</v>
+      </c>
+      <c r="U32" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+      <c r="V32" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>-</v>
+      </c>
+      <c r="W32" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>-</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C33" s="6">
         <v>5</v>
@@ -3229,7 +3254,7 @@
         <v>15</v>
       </c>
       <c r="E33" s="6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F33" s="4" t="str">
         <f t="shared" si="16"/>
@@ -3252,7 +3277,7 @@
         <v>-</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L33" s="4" t="str">
         <f t="shared" si="1"/>
@@ -3263,43 +3288,41 @@
         <v>-</v>
       </c>
       <c r="N33" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O33" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="P33" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
+        <v>86</v>
+      </c>
+      <c r="P33" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="Q33" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="R33" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>-</v>
+        <v>51</v>
+      </c>
+      <c r="R33" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="S33" s="6" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
       <c r="T33" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="U33" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V33" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="W33" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="W33" s="4" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C34" s="6">
         <v>5</v>
@@ -3308,7 +3331,7 @@
         <v>15</v>
       </c>
       <c r="E34" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F34" s="4" t="str">
         <f t="shared" si="16"/>
@@ -3331,7 +3354,7 @@
         <v>-</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L34" s="4" t="str">
         <f t="shared" si="1"/>
@@ -3342,18 +3365,17 @@
         <v>-</v>
       </c>
       <c r="N34" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O34" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P34" s="4" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="Q34" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
+      <c r="Q34" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="R34" s="4" t="str">
         <f t="shared" si="6"/>
@@ -3364,24 +3386,22 @@
         <v>-</v>
       </c>
       <c r="T34" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="U34" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
+        <v>75</v>
+      </c>
+      <c r="U34" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="V34" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="W34" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="W34" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>-</v>
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C35" s="6">
         <v>5</v>
@@ -3390,10 +3410,10 @@
         <v>15</v>
       </c>
       <c r="E35" s="6">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F35" s="4" t="str">
-        <f>IF(D35+10 &gt;= 20, "-")</f>
+        <f t="shared" si="16"/>
         <v>-</v>
       </c>
       <c r="G35" s="4" t="str">
@@ -3413,7 +3433,7 @@
         <v>-</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L35" s="4" t="str">
         <f t="shared" si="1"/>
@@ -3424,10 +3444,10 @@
         <v>-</v>
       </c>
       <c r="N35" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O35" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P35" s="4" t="str">
         <f t="shared" si="4"/>
@@ -3446,15 +3466,14 @@
         <v>-</v>
       </c>
       <c r="T35" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U35" s="6" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="V35" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>-</v>
+      <c r="V35" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="W35" s="4" t="str">
         <f t="shared" si="10"/>
@@ -3464,47 +3483,53 @@
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C36" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D36" s="6">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E36" s="6">
-        <v>0</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="H36" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="I36" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="J36" s="6" t="s">
-        <v>74</v>
+        <v>15</v>
+      </c>
+      <c r="F36" s="4" t="str">
+        <f>IF(D36+10 &gt;= 20, "-")</f>
+        <v>-</v>
+      </c>
+      <c r="G36" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>-</v>
+      </c>
+      <c r="H36" s="6" t="str">
+        <f t="shared" si="15"/>
+        <v>-</v>
+      </c>
+      <c r="I36" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>-</v>
+      </c>
+      <c r="J36" s="6" t="str">
+        <f t="shared" si="12"/>
+        <v>-</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="L36" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="M36" s="4" t="s">
-        <v>54</v>
+        <v>44</v>
+      </c>
+      <c r="L36" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="M36" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
       </c>
       <c r="N36" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="O36" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
+        <v>77</v>
+      </c>
+      <c r="O36" s="6" t="s">
+        <v>89</v>
       </c>
       <c r="P36" s="4" t="str">
         <f t="shared" si="4"/>
@@ -3523,7 +3548,7 @@
         <v>-</v>
       </c>
       <c r="T36" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="U36" s="6" t="str">
         <f t="shared" si="8"/>
@@ -3541,7 +3566,7 @@
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C37" s="6">
         <v>10</v>
@@ -3550,34 +3575,34 @@
         <v>0</v>
       </c>
       <c r="E37" s="6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N37" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O37" s="6" t="str">
         <f t="shared" si="3"/>
@@ -3600,7 +3625,7 @@
         <v>-</v>
       </c>
       <c r="T37" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U37" s="6" t="str">
         <f t="shared" si="8"/>
@@ -3618,7 +3643,7 @@
     <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C38" s="6">
         <v>10</v>
@@ -3627,34 +3652,34 @@
         <v>0</v>
       </c>
       <c r="E38" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N38" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O38" s="6" t="str">
         <f t="shared" si="3"/>
@@ -3677,7 +3702,7 @@
         <v>-</v>
       </c>
       <c r="T38" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="U38" s="6" t="str">
         <f t="shared" si="8"/>
@@ -3695,7 +3720,7 @@
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C39" s="6">
         <v>10</v>
@@ -3704,34 +3729,34 @@
         <v>0</v>
       </c>
       <c r="E39" s="6">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N39" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O39" s="6" t="str">
         <f t="shared" si="3"/>
@@ -3754,7 +3779,7 @@
         <v>-</v>
       </c>
       <c r="T39" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U39" s="6" t="str">
         <f t="shared" si="8"/>
@@ -3772,45 +3797,43 @@
     <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C40" s="6">
         <v>10</v>
       </c>
       <c r="D40" s="6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E40" s="6">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G40" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>-</v>
+        <v>73</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="J40" s="6" t="str">
-        <f t="shared" si="12"/>
-        <v>-</v>
+        <v>73</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N40" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O40" s="6" t="str">
         <f t="shared" si="3"/>
@@ -3833,22 +3856,25 @@
         <v>-</v>
       </c>
       <c r="T40" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="U40" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="V40" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="W40" s="4" t="s">
-        <v>64</v>
+        <v>81</v>
+      </c>
+      <c r="U40" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+      <c r="V40" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>-</v>
+      </c>
+      <c r="W40" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>-</v>
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C41" s="6">
         <v>10</v>
@@ -3857,36 +3883,36 @@
         <v>5</v>
       </c>
       <c r="E41" s="6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G41" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J41" s="6" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N41" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O41" s="6" t="str">
         <f t="shared" si="3"/>
@@ -3909,22 +3935,22 @@
         <v>-</v>
       </c>
       <c r="T41" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="U41" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="V41" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="W41" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="W41" s="4" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C42" s="6">
         <v>10</v>
@@ -3933,36 +3959,36 @@
         <v>5</v>
       </c>
       <c r="E42" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G42" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J42" s="6" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N42" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O42" s="6" t="str">
         <f t="shared" si="3"/>
@@ -3985,24 +4011,22 @@
         <v>-</v>
       </c>
       <c r="T42" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="U42" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
+        <v>83</v>
+      </c>
+      <c r="U42" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="V42" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="W42" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="W42" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>-</v>
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C43" s="6">
         <v>10</v>
@@ -4011,36 +4035,36 @@
         <v>5</v>
       </c>
       <c r="E43" s="6">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G43" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J43" s="6" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M43" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N43" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O43" s="6" t="str">
         <f t="shared" si="3"/>
@@ -4063,15 +4087,14 @@
         <v>-</v>
       </c>
       <c r="T43" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="U43" s="6" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="V43" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>-</v>
+      <c r="V43" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="W43" s="4" t="str">
         <f t="shared" si="10"/>
@@ -4081,83 +4104,86 @@
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C44" s="6">
         <v>10</v>
       </c>
       <c r="D44" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E44" s="6">
-        <v>0</v>
-      </c>
-      <c r="F44" s="4" t="str">
-        <f t="shared" ref="F44:F51" si="17">IF(D44+10 &gt;= 20, "-")</f>
-        <v>-</v>
+        <v>15</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="G44" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="I44" s="6" t="str">
-        <f t="shared" si="13"/>
-        <v>-</v>
+        <v>73</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="J44" s="6" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="M44" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
+        <v>41</v>
+      </c>
+      <c r="M44" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="N44" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O44" s="6" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="P44" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q44" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="R44" s="4" t="s">
-        <v>65</v>
+      <c r="P44" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="Q44" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="R44" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>-</v>
       </c>
       <c r="S44" s="6" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
       <c r="T44" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="U44" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="V44" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="W44" s="4" t="s">
-        <v>68</v>
+        <v>85</v>
+      </c>
+      <c r="U44" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+      <c r="V44" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>-</v>
+      </c>
+      <c r="W44" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>-</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C45" s="6">
         <v>10</v>
@@ -4166,10 +4192,10 @@
         <v>10</v>
       </c>
       <c r="E45" s="6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F45" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="F45:F52" si="17">IF(D45+10 &gt;= 20, "-")</f>
         <v>-</v>
       </c>
       <c r="G45" s="4" t="str">
@@ -4177,7 +4203,7 @@
         <v>-</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I45" s="6" t="str">
         <f t="shared" si="13"/>
@@ -4188,54 +4214,52 @@
         <v>-</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M45" s="4" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="N45" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O45" s="6" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="P45" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
+      <c r="P45" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="Q45" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="R45" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="R45" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>-</v>
       </c>
       <c r="S45" s="6" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
       <c r="T45" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U45" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="V45" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="W45" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="W45" s="4" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C46" s="6">
         <v>10</v>
@@ -4244,7 +4268,7 @@
         <v>10</v>
       </c>
       <c r="E46" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F46" s="4" t="str">
         <f t="shared" si="17"/>
@@ -4255,7 +4279,7 @@
         <v>-</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I46" s="6" t="str">
         <f t="shared" si="13"/>
@@ -4266,17 +4290,17 @@
         <v>-</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M46" s="4" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="N46" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O46" s="6" t="str">
         <f t="shared" si="3"/>
@@ -4286,9 +4310,8 @@
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="Q46" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
+      <c r="Q46" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="R46" s="4" t="str">
         <f t="shared" si="6"/>
@@ -4299,24 +4322,22 @@
         <v>-</v>
       </c>
       <c r="T46" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="U46" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
+        <v>87</v>
+      </c>
+      <c r="U46" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="V46" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="W46" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="W46" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>-</v>
       </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C47" s="6">
         <v>10</v>
@@ -4325,7 +4346,7 @@
         <v>10</v>
       </c>
       <c r="E47" s="6">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F47" s="4" t="str">
         <f t="shared" si="17"/>
@@ -4336,7 +4357,7 @@
         <v>-</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I47" s="6" t="str">
         <f t="shared" si="13"/>
@@ -4347,17 +4368,17 @@
         <v>-</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M47" s="4" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="N47" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O47" s="6" t="str">
         <f t="shared" si="3"/>
@@ -4380,15 +4401,14 @@
         <v>-</v>
       </c>
       <c r="T47" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="U47" s="6" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="V47" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>-</v>
+      <c r="V47" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="W47" s="4" t="str">
         <f t="shared" si="10"/>
@@ -4398,16 +4418,16 @@
     <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C48" s="6">
         <v>10</v>
       </c>
       <c r="D48" s="6">
+        <v>10</v>
+      </c>
+      <c r="E48" s="6">
         <v>15</v>
-      </c>
-      <c r="E48" s="6">
-        <v>0</v>
       </c>
       <c r="F48" s="4" t="str">
         <f t="shared" si="17"/>
@@ -4417,9 +4437,8 @@
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
-      <c r="H48" s="6" t="str">
-        <f t="shared" si="15"/>
-        <v>-</v>
+      <c r="H48" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="I48" s="6" t="str">
         <f t="shared" si="13"/>
@@ -4430,53 +4449,58 @@
         <v>-</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="L48" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
+        <v>57</v>
+      </c>
+      <c r="L48" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="M48" s="4" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="N48" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O48" s="6" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="P48" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q48" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="R48" s="4" t="s">
-        <v>69</v>
+      <c r="P48" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="Q48" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="R48" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>-</v>
       </c>
       <c r="S48" s="6" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
       <c r="T48" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="U48" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="V48" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="W48" s="4" t="s">
-        <v>72</v>
+        <v>89</v>
+      </c>
+      <c r="U48" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+      <c r="V48" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>-</v>
+      </c>
+      <c r="W48" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>-</v>
       </c>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C49" s="6">
         <v>10</v>
@@ -4485,7 +4509,7 @@
         <v>15</v>
       </c>
       <c r="E49" s="6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F49" s="4" t="str">
         <f t="shared" si="17"/>
@@ -4508,7 +4532,7 @@
         <v>-</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L49" s="4" t="str">
         <f t="shared" si="1"/>
@@ -4519,44 +4543,42 @@
         <v>-</v>
       </c>
       <c r="N49" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O49" s="6" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="P49" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
+      <c r="P49" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="Q49" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="R49" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="R49" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>-</v>
       </c>
       <c r="S49" s="6" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
       <c r="T49" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U49" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="V49" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="W49" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="W49" s="4" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C50" s="6">
         <v>10</v>
@@ -4565,7 +4587,7 @@
         <v>15</v>
       </c>
       <c r="E50" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F50" s="4" t="str">
         <f t="shared" si="17"/>
@@ -4588,7 +4610,7 @@
         <v>-</v>
       </c>
       <c r="K50" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L50" s="4" t="str">
         <f t="shared" si="1"/>
@@ -4599,7 +4621,7 @@
         <v>-</v>
       </c>
       <c r="N50" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O50" s="6" t="str">
         <f t="shared" si="3"/>
@@ -4609,9 +4631,8 @@
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="Q50" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
+      <c r="Q50" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="R50" s="4" t="str">
         <f t="shared" si="6"/>
@@ -4622,24 +4643,22 @@
         <v>-</v>
       </c>
       <c r="T50" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="U50" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
+        <v>91</v>
+      </c>
+      <c r="U50" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="V50" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="W50" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="W50" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>-</v>
       </c>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C51" s="6">
         <v>10</v>
@@ -4648,7 +4667,7 @@
         <v>15</v>
       </c>
       <c r="E51" s="6">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F51" s="4" t="str">
         <f t="shared" si="17"/>
@@ -4671,7 +4690,7 @@
         <v>-</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L51" s="4" t="str">
         <f t="shared" si="1"/>
@@ -4682,7 +4701,7 @@
         <v>-</v>
       </c>
       <c r="N51" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O51" s="6" t="str">
         <f t="shared" si="3"/>
@@ -4705,15 +4724,14 @@
         <v>-</v>
       </c>
       <c r="T51" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U51" s="6" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="V51" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>-</v>
+      <c r="V51" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="W51" s="4" t="str">
         <f t="shared" si="10"/>
@@ -4723,44 +4741,50 @@
     <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C52" s="6">
+        <v>10</v>
+      </c>
+      <c r="D52" s="6">
         <v>15</v>
       </c>
-      <c r="D52" s="6">
-        <v>0</v>
-      </c>
       <c r="E52" s="6">
-        <v>0</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="H52" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="I52" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="J52" s="6" t="s">
-        <v>90</v>
+        <v>15</v>
+      </c>
+      <c r="F52" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>-</v>
+      </c>
+      <c r="G52" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>-</v>
+      </c>
+      <c r="H52" s="6" t="str">
+        <f t="shared" si="15"/>
+        <v>-</v>
+      </c>
+      <c r="I52" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>-</v>
+      </c>
+      <c r="J52" s="6" t="str">
+        <f t="shared" si="12"/>
+        <v>-</v>
       </c>
       <c r="K52" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="L52" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="M52" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="N52" s="6" t="str">
-        <f t="shared" ref="N52:N67" si="18">IF(C52+5&gt;=20,"-")</f>
-        <v>-</v>
+        <v>61</v>
+      </c>
+      <c r="L52" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="M52" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="N52" s="6" t="s">
+        <v>93</v>
       </c>
       <c r="O52" s="6" t="str">
         <f t="shared" si="3"/>
@@ -4782,9 +4806,8 @@
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
-      <c r="T52" s="4" t="str">
-        <f t="shared" ref="T52:T67" si="19">IF(C52 + 5 &gt;= 20,"-")</f>
-        <v>-</v>
+      <c r="T52" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="U52" s="6" t="str">
         <f t="shared" si="8"/>
@@ -4802,7 +4825,7 @@
     <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C53" s="6">
         <v>15</v>
@@ -4811,34 +4834,34 @@
         <v>0</v>
       </c>
       <c r="E53" s="6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I53" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J53" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K53" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M53" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N53" s="6" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="N53:N68" si="18">IF(C53+5&gt;=20,"-")</f>
         <v>-</v>
       </c>
       <c r="O53" s="6" t="str">
@@ -4862,7 +4885,7 @@
         <v>-</v>
       </c>
       <c r="T53" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="T53:T68" si="19">IF(C53 + 5 &gt;= 20,"-")</f>
         <v>-</v>
       </c>
       <c r="U53" s="6" t="str">
@@ -4881,7 +4904,7 @@
     <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C54" s="6">
         <v>15</v>
@@ -4890,31 +4913,31 @@
         <v>0</v>
       </c>
       <c r="E54" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I54" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J54" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K54" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M54" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N54" s="6" t="str">
         <f t="shared" si="18"/>
@@ -4960,7 +4983,7 @@
     <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C55" s="6">
         <v>15</v>
@@ -4969,31 +4992,31 @@
         <v>0</v>
       </c>
       <c r="E55" s="6">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I55" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J55" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M55" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N55" s="6" t="str">
         <f t="shared" si="18"/>
@@ -5039,42 +5062,40 @@
     <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C56" s="6">
         <v>15</v>
       </c>
       <c r="D56" s="6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E56" s="6">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="G56" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>-</v>
+        <v>89</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I56" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="J56" s="6" t="str">
-        <f t="shared" si="12"/>
-        <v>-</v>
+        <v>89</v>
+      </c>
+      <c r="J56" s="6" t="s">
+        <v>93</v>
       </c>
       <c r="K56" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M56" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N56" s="6" t="str">
         <f t="shared" si="18"/>
@@ -5104,20 +5125,23 @@
         <f t="shared" si="19"/>
         <v>-</v>
       </c>
-      <c r="U56" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="V56" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="W56" s="4" t="s">
-        <v>80</v>
+      <c r="U56" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+      <c r="V56" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>-</v>
+      </c>
+      <c r="W56" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>-</v>
       </c>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C57" s="6">
         <v>15</v>
@@ -5126,33 +5150,33 @@
         <v>5</v>
       </c>
       <c r="E57" s="6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G57" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I57" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J57" s="6" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
       </c>
       <c r="K57" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M57" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N57" s="6" t="str">
         <f t="shared" si="18"/>
@@ -5183,19 +5207,19 @@
         <v>-</v>
       </c>
       <c r="U57" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="V57" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="W57" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="W57" s="4" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C58" s="6">
         <v>15</v>
@@ -5204,33 +5228,33 @@
         <v>5</v>
       </c>
       <c r="E58" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G58" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I58" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J58" s="6" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
       </c>
       <c r="K58" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L58" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M58" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N58" s="6" t="str">
         <f t="shared" si="18"/>
@@ -5260,22 +5284,20 @@
         <f t="shared" si="19"/>
         <v>-</v>
       </c>
-      <c r="U58" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
+      <c r="U58" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="V58" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="W58" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="W58" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>-</v>
       </c>
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C59" s="6">
         <v>15</v>
@@ -5284,33 +5306,33 @@
         <v>5</v>
       </c>
       <c r="E59" s="6">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G59" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I59" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J59" s="6" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
       </c>
       <c r="K59" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M59" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N59" s="6" t="str">
         <f t="shared" si="18"/>
@@ -5344,9 +5366,8 @@
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="V59" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>-</v>
+      <c r="V59" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="W59" s="4" t="str">
         <f t="shared" si="10"/>
@@ -5356,45 +5377,42 @@
     <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C60" s="6">
         <v>15</v>
       </c>
       <c r="D60" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E60" s="6">
-        <v>0</v>
-      </c>
-      <c r="F60" s="4" t="str">
-        <f t="shared" ref="F60:F66" si="20">IF(D60+10 &gt;= 20, "-")</f>
-        <v>-</v>
+        <v>15</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="G60" s="4" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="I60" s="6" t="str">
-        <f t="shared" si="13"/>
-        <v>-</v>
+        <v>89</v>
+      </c>
+      <c r="I60" s="6" t="s">
+        <v>93</v>
       </c>
       <c r="J60" s="6" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
       </c>
       <c r="K60" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="M60" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
+        <v>57</v>
+      </c>
+      <c r="M60" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="N60" s="6" t="str">
         <f t="shared" si="18"/>
@@ -5404,14 +5422,17 @@
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="P60" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q60" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="R60" s="4" t="s">
-        <v>81</v>
+      <c r="P60" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="Q60" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="R60" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>-</v>
       </c>
       <c r="S60" s="6" t="str">
         <f t="shared" si="7"/>
@@ -5421,20 +5442,23 @@
         <f t="shared" si="19"/>
         <v>-</v>
       </c>
-      <c r="U60" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="V60" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="W60" s="4" t="s">
-        <v>84</v>
+      <c r="U60" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+      <c r="V60" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>-</v>
+      </c>
+      <c r="W60" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>-</v>
       </c>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C61" s="6">
         <v>15</v>
@@ -5443,10 +5467,10 @@
         <v>10</v>
       </c>
       <c r="E61" s="6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F61" s="4" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="F61:F67" si="20">IF(D61+10 &gt;= 20, "-")</f>
         <v>-</v>
       </c>
       <c r="G61" s="4" t="str">
@@ -5454,7 +5478,7 @@
         <v>-</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I61" s="6" t="str">
         <f t="shared" si="13"/>
@@ -5465,10 +5489,10 @@
         <v>-</v>
       </c>
       <c r="K61" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M61" s="4" t="str">
         <f t="shared" si="2"/>
@@ -5482,16 +5506,14 @@
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="P61" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
+      <c r="P61" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="Q61" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="R61" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="R61" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>-</v>
       </c>
       <c r="S61" s="6" t="str">
         <f t="shared" si="7"/>
@@ -5502,19 +5524,19 @@
         <v>-</v>
       </c>
       <c r="U61" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V61" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="W61" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="W61" s="4" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="B62" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C62" s="6">
         <v>15</v>
@@ -5523,7 +5545,7 @@
         <v>10</v>
       </c>
       <c r="E62" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F62" s="4" t="str">
         <f t="shared" si="20"/>
@@ -5534,7 +5556,7 @@
         <v>-</v>
       </c>
       <c r="H62" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I62" s="6" t="str">
         <f t="shared" si="13"/>
@@ -5545,10 +5567,10 @@
         <v>-</v>
       </c>
       <c r="K62" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L62" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M62" s="4" t="str">
         <f t="shared" si="2"/>
@@ -5566,9 +5588,8 @@
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="Q62" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
+      <c r="Q62" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="R62" s="4" t="str">
         <f t="shared" si="6"/>
@@ -5582,22 +5603,20 @@
         <f t="shared" si="19"/>
         <v>-</v>
       </c>
-      <c r="U62" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
+      <c r="U62" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="V62" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="W62" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="W62" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>-</v>
       </c>
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C63" s="6">
         <v>15</v>
@@ -5606,7 +5625,7 @@
         <v>10</v>
       </c>
       <c r="E63" s="6">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F63" s="4" t="str">
         <f t="shared" si="20"/>
@@ -5617,7 +5636,7 @@
         <v>-</v>
       </c>
       <c r="H63" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I63" s="6" t="str">
         <f t="shared" si="13"/>
@@ -5628,10 +5647,10 @@
         <v>-</v>
       </c>
       <c r="K63" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L63" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M63" s="4" t="str">
         <f t="shared" si="2"/>
@@ -5669,9 +5688,8 @@
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="V63" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>-</v>
+      <c r="V63" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="W63" s="4" t="str">
         <f t="shared" si="10"/>
@@ -5681,16 +5699,16 @@
     <row r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C64" s="6">
         <v>15</v>
       </c>
       <c r="D64" s="6">
+        <v>10</v>
+      </c>
+      <c r="E64" s="6">
         <v>15</v>
-      </c>
-      <c r="E64" s="6">
-        <v>0</v>
       </c>
       <c r="F64" s="4" t="str">
         <f t="shared" si="20"/>
@@ -5700,9 +5718,8 @@
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
-      <c r="H64" s="6" t="str">
-        <f t="shared" si="15"/>
-        <v>-</v>
+      <c r="H64" s="6" t="s">
+        <v>93</v>
       </c>
       <c r="I64" s="6" t="str">
         <f t="shared" si="13"/>
@@ -5713,11 +5730,10 @@
         <v>-</v>
       </c>
       <c r="K64" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="L64" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
+        <v>73</v>
+      </c>
+      <c r="L64" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="M64" s="4" t="str">
         <f t="shared" si="2"/>
@@ -5731,14 +5747,17 @@
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="P64" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q64" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="R64" s="4" t="s">
-        <v>85</v>
+      <c r="P64" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="Q64" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="R64" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>-</v>
       </c>
       <c r="S64" s="6" t="str">
         <f t="shared" si="7"/>
@@ -5748,20 +5767,23 @@
         <f t="shared" si="19"/>
         <v>-</v>
       </c>
-      <c r="U64" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="V64" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="W64" s="4" t="s">
-        <v>88</v>
+      <c r="U64" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+      <c r="V64" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>-</v>
+      </c>
+      <c r="W64" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>-</v>
       </c>
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C65" s="6">
         <v>15</v>
@@ -5770,7 +5792,7 @@
         <v>15</v>
       </c>
       <c r="E65" s="6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F65" s="4" t="str">
         <f t="shared" si="20"/>
@@ -5781,7 +5803,7 @@
         <v>-</v>
       </c>
       <c r="H65" s="6" t="str">
-        <f>IF(D65+5 &gt;= 20, "-")</f>
+        <f t="shared" si="15"/>
         <v>-</v>
       </c>
       <c r="I65" s="6" t="str">
@@ -5793,7 +5815,7 @@
         <v>-</v>
       </c>
       <c r="K65" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L65" s="4" t="str">
         <f t="shared" si="1"/>
@@ -5811,16 +5833,14 @@
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="P65" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
+      <c r="P65" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="Q65" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="R65" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="R65" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>-</v>
       </c>
       <c r="S65" s="6" t="str">
         <f t="shared" si="7"/>
@@ -5831,19 +5851,19 @@
         <v>-</v>
       </c>
       <c r="U65" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V65" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="W65" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="W65" s="4" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="6">
         <v>15</v>
@@ -5852,7 +5872,7 @@
         <v>15</v>
       </c>
       <c r="E66" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F66" s="4" t="str">
         <f t="shared" si="20"/>
@@ -5863,7 +5883,7 @@
         <v>-</v>
       </c>
       <c r="H66" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f>IF(D66+5 &gt;= 20, "-")</f>
         <v>-</v>
       </c>
       <c r="I66" s="6" t="str">
@@ -5875,7 +5895,7 @@
         <v>-</v>
       </c>
       <c r="K66" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L66" s="4" t="str">
         <f t="shared" si="1"/>
@@ -5897,9 +5917,8 @@
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="Q66" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
+      <c r="Q66" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="R66" s="4" t="str">
         <f t="shared" si="6"/>
@@ -5913,24 +5932,20 @@
         <f t="shared" si="19"/>
         <v>-</v>
       </c>
-      <c r="U66" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
+      <c r="U66" s="6" t="s">
+        <v>89</v>
       </c>
       <c r="V66" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="W66" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="W66" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>-</v>
-      </c>
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A67" s="8" t="s">
-        <v>95</v>
-      </c>
+      <c r="A67" s="3"/>
       <c r="B67" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C67" s="6">
         <v>15</v>
@@ -5939,10 +5954,10 @@
         <v>15</v>
       </c>
       <c r="E67" s="6">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F67" s="4" t="str">
-        <f>IF(D67+10 &gt;= 20, "-")</f>
+        <f t="shared" si="20"/>
         <v>-</v>
       </c>
       <c r="G67" s="4" t="str">
@@ -5962,7 +5977,7 @@
         <v>-</v>
       </c>
       <c r="K67" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L67" s="4" t="str">
         <f t="shared" si="1"/>
@@ -6004,9 +6019,8 @@
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="V67" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>-</v>
+      <c r="V67" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="W67" s="4" t="str">
         <f t="shared" si="10"/>
@@ -6018,35 +6032,39 @@
         <v>95</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C68" s="6">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D68" s="6">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E68" s="6">
-        <v>0</v>
-      </c>
-      <c r="F68" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G68" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H68" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="I68" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="J68" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="K68" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <v>15</v>
+      </c>
+      <c r="F68" s="4" t="str">
+        <f>IF(D68+10 &gt;= 20, "-")</f>
+        <v>-</v>
+      </c>
+      <c r="G68" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>-</v>
+      </c>
+      <c r="H68" s="6" t="str">
+        <f t="shared" si="15"/>
+        <v>-</v>
+      </c>
+      <c r="I68" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>-</v>
+      </c>
+      <c r="J68" s="6" t="str">
+        <f t="shared" si="12"/>
+        <v>-</v>
+      </c>
+      <c r="K68" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="L68" s="4" t="str">
         <f t="shared" si="1"/>
@@ -6056,8 +6074,9 @@
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="N68" s="6" t="s">
-        <v>46</v>
+      <c r="N68" s="6" t="str">
+        <f t="shared" si="18"/>
+        <v>-</v>
       </c>
       <c r="O68" s="6" t="str">
         <f t="shared" si="3"/>
@@ -6079,8 +6098,9 @@
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
-      <c r="T68" s="4" t="s">
-        <v>46</v>
+      <c r="T68" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>-</v>
       </c>
       <c r="U68" s="6" t="str">
         <f t="shared" si="8"/>
@@ -6095,11 +6115,87 @@
         <v>-</v>
       </c>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
-      <c r="G77" s="2"/>
-      <c r="H77" s="2"/>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A69" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69" s="6">
+        <v>0</v>
+      </c>
+      <c r="D69" s="6">
+        <v>0</v>
+      </c>
+      <c r="E69" s="6">
+        <v>0</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H69" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I69" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J69" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K69" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="L69" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="M69" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="N69" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="O69" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="P69" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="Q69" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="R69" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="S69" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+      <c r="T69" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="U69" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+      <c r="V69" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>-</v>
+      </c>
+      <c r="W69" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>-</v>
+      </c>
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.25">
       <c r="E78" s="2"/>
@@ -6167,8 +6263,14 @@
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
     </row>
+    <row r="89" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="11">
     <mergeCell ref="V3:W3"/>
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="K3:M3"/>
@@ -6176,6 +6278,10 @@
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="F3:G3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/DFA.xlsx
+++ b/DFA.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1269" uniqueCount="114">
   <si>
     <t>Hygiene</t>
   </si>
@@ -363,6 +363,9 @@
   </si>
   <si>
     <t>E-5, F+10</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -902,7 +905,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A3:W89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="I17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X38" sqref="X38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1125,36 +1130,29 @@
       <c r="E6" s="6">
         <v>0</v>
       </c>
-      <c r="F6" s="4" t="str">
-        <f>IF(D6+10 &gt;= 20, "-")</f>
-        <v>-</v>
-      </c>
-      <c r="G6" s="4" t="str">
-        <f>IF(D6+15 &gt;= 20, "-")</f>
-        <v>-</v>
+      <c r="F6" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="6" t="str">
-        <f>IF(D6+10&gt;= 20, "-")</f>
-        <v>-</v>
-      </c>
-      <c r="J6" s="6" t="str">
-        <f>IF(D6+15 &gt;= 20, "-")</f>
-        <v>-</v>
-      </c>
-      <c r="K6" s="4" t="str">
-        <f>IF(C6-5 &lt;= -5, "-")</f>
-        <v>-</v>
-      </c>
-      <c r="L6" s="4" t="str">
-        <f>IF(OR(D6+5&gt;=20,C6-10&lt;=-5),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="M6" s="4" t="str">
-        <f>IF(OR(D6+10&gt;=20,C6-5&lt;=-5),"-")</f>
-        <v>-</v>
+      <c r="I6" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="N6" s="6" t="s">
         <v>54</v>
@@ -1162,9 +1160,8 @@
       <c r="O6" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="P6" s="4" t="str">
-        <f>IF(OR(C6-5 &lt;= -5, D6 - 10 &lt;= -5, E6+15 &gt;= 20),"-")</f>
-        <v>-</v>
+      <c r="P6" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="Q6" s="6" t="s">
         <v>33</v>
@@ -1217,55 +1214,44 @@
       <c r="J7" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="K7" s="4" t="str">
-        <f t="shared" ref="K7:K69" si="0">IF(C7-5 &lt;= -5, "-")</f>
-        <v>-</v>
-      </c>
-      <c r="L7" s="4" t="str">
-        <f t="shared" ref="L7:L69" si="1">IF(OR(D7+5&gt;=20,C7-10&lt;=-5),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="M7" s="4" t="str">
-        <f t="shared" ref="M7:M69" si="2">IF(OR(D7+10&gt;=20,C7-5&lt;=-5),"-")</f>
-        <v>-</v>
+      <c r="K7" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="N7" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="O7" s="6" t="str">
-        <f t="shared" ref="O7:O69" si="3">IF(OR(D7-5&lt;=-5,C7+10&gt;=20),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="P7" s="4" t="str">
-        <f t="shared" ref="P7:P69" si="4">IF(OR(C7-5 &lt;= -5, D7 - 10 &lt;= -5, E7+15 &gt;= 20),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="Q7" s="6" t="str">
-        <f t="shared" ref="Q7:Q69" si="5">IF(OR(D7 - 10 &lt;= -5, E7+10 &gt;= 20),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="R7" s="4" t="str">
-        <f t="shared" ref="R7:R69" si="6">IF(OR(D7 - 10 &lt;= -5, E7+15 &gt;= 20),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="S7" s="6" t="str">
-        <f t="shared" ref="S7:S69" si="7">IF(OR(C7 + 15 &gt;= 20, D7-5 &lt;= -5),"-")</f>
-        <v>-</v>
+      <c r="O7" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="S7" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="T7" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="U7" s="6" t="str">
-        <f t="shared" ref="U7:U69" si="8">IF(OR(D7 - 5 &lt;= -5, E7+10 &gt;= 20),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="V7" s="4" t="str">
-        <f t="shared" ref="V7:V69" si="9">IF(OR(D7 - 5 &lt;= -5, E7+5 &gt;= 20),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="W7" s="4" t="str">
-        <f t="shared" ref="W7:W69" si="10">IF(OR(D7 - 5 &lt;= -5, E7+10 &gt;= 20),"-")</f>
-        <v>-</v>
+      <c r="U7" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="V7" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="W7" s="4" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
@@ -1297,55 +1283,44 @@
       <c r="J8" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="K8" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="L8" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="M8" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
+      <c r="K8" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="N8" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="O8" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="P8" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="Q8" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-      <c r="R8" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>-</v>
-      </c>
-      <c r="S8" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
+      <c r="O8" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="T8" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="U8" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
-      </c>
-      <c r="V8" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>-</v>
-      </c>
-      <c r="W8" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>-</v>
+      <c r="U8" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="V8" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="W8" s="4" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
@@ -1377,55 +1352,44 @@
       <c r="J9" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="K9" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="L9" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="M9" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
+      <c r="K9" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="N9" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="O9" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="P9" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="Q9" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-      <c r="R9" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>-</v>
-      </c>
-      <c r="S9" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
+      <c r="O9" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q9" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="S9" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="T9" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="U9" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
-      </c>
-      <c r="V9" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>-</v>
-      </c>
-      <c r="W9" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>-</v>
+      <c r="U9" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="V9" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="W9" s="4" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
@@ -1445,9 +1409,8 @@
       <c r="F10" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="4" t="str">
-        <f t="shared" ref="G10:G68" si="11">IF(D10+15 &gt;= 20, "-")</f>
-        <v>-</v>
+      <c r="G10" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>5</v>
@@ -1455,21 +1418,17 @@
       <c r="I10" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="J10" s="6" t="str">
-        <f t="shared" ref="J10:J68" si="12">IF(D10+15 &gt;= 20, "-")</f>
-        <v>-</v>
-      </c>
-      <c r="K10" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="L10" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="M10" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
+      <c r="J10" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="N10" s="6" t="s">
         <v>49</v>
@@ -1477,17 +1436,14 @@
       <c r="O10" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="P10" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="Q10" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-      <c r="R10" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>-</v>
+      <c r="P10" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q10" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="S10" s="6" t="s">
         <v>78</v>
@@ -1522,9 +1478,8 @@
       <c r="F11" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G11" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>-</v>
+      <c r="G11" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>39</v>
@@ -1532,21 +1487,17 @@
       <c r="I11" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="J11" s="6" t="str">
-        <f t="shared" si="12"/>
-        <v>-</v>
-      </c>
-      <c r="K11" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="L11" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="M11" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
+      <c r="J11" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="N11" s="6" t="s">
         <v>51</v>
@@ -1554,17 +1505,14 @@
       <c r="O11" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="P11" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="Q11" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-      <c r="R11" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>-</v>
+      <c r="P11" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q11" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="S11" s="6" t="s">
         <v>79</v>
@@ -1599,9 +1547,8 @@
       <c r="F12" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G12" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>-</v>
+      <c r="G12" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>40</v>
@@ -1609,21 +1556,17 @@
       <c r="I12" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="J12" s="6" t="str">
-        <f t="shared" si="12"/>
-        <v>-</v>
-      </c>
-      <c r="K12" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="L12" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="M12" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
+      <c r="J12" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="N12" s="6" t="s">
         <v>52</v>
@@ -1631,17 +1574,14 @@
       <c r="O12" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="P12" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="Q12" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-      <c r="R12" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>-</v>
+      <c r="P12" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q12" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="S12" s="6" t="s">
         <v>80</v>
@@ -1649,16 +1589,14 @@
       <c r="T12" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="U12" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
+      <c r="U12" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="V12" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="W12" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>-</v>
+      <c r="W12" s="4" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
@@ -1678,9 +1616,8 @@
       <c r="F13" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>-</v>
+      <c r="G13" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>41</v>
@@ -1688,21 +1625,17 @@
       <c r="I13" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="J13" s="6" t="str">
-        <f t="shared" si="12"/>
-        <v>-</v>
-      </c>
-      <c r="K13" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="L13" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="M13" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
+      <c r="J13" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="N13" s="6" t="s">
         <v>53</v>
@@ -1710,17 +1643,14 @@
       <c r="O13" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="P13" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="Q13" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-      <c r="R13" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>-</v>
+      <c r="P13" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q13" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="S13" s="6" t="s">
         <v>81</v>
@@ -1728,17 +1658,14 @@
       <c r="T13" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="U13" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
-      </c>
-      <c r="V13" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>-</v>
-      </c>
-      <c r="W13" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>-</v>
+      <c r="U13" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="V13" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="W13" s="4" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
@@ -1755,36 +1682,29 @@
       <c r="E14" s="6">
         <v>5</v>
       </c>
-      <c r="F14" s="4" t="str">
-        <f>IF(D14+10 &gt;= 20, "-")</f>
-        <v>-</v>
-      </c>
-      <c r="G14" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>-</v>
+      <c r="F14" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I14" s="6" t="str">
-        <f t="shared" ref="I14:I68" si="13">IF(D14+10&gt;= 20, "-")</f>
-        <v>-</v>
-      </c>
-      <c r="J14" s="6" t="str">
-        <f t="shared" si="12"/>
-        <v>-</v>
-      </c>
-      <c r="K14" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="L14" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="M14" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
+      <c r="I14" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="N14" s="6" t="s">
         <v>55</v>
@@ -1792,16 +1712,14 @@
       <c r="O14" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="P14" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
+      <c r="P14" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="Q14" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="R14" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>-</v>
+      <c r="R14" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="S14" s="6" t="s">
         <v>83</v>
@@ -1833,36 +1751,29 @@
       <c r="E15" s="6">
         <v>10</v>
       </c>
-      <c r="F15" s="4" t="str">
-        <f t="shared" ref="F15:F20" si="14">IF(D15+10 &gt;= 20, "-")</f>
-        <v>-</v>
-      </c>
-      <c r="G15" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>-</v>
+      <c r="F15" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="I15" s="6" t="str">
-        <f t="shared" si="13"/>
-        <v>-</v>
-      </c>
-      <c r="J15" s="6" t="str">
-        <f t="shared" si="12"/>
-        <v>-</v>
-      </c>
-      <c r="K15" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="L15" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="M15" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
+      <c r="I15" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="N15" s="6" t="s">
         <v>56</v>
@@ -1870,17 +1781,14 @@
       <c r="O15" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="P15" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="Q15" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-      <c r="R15" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>-</v>
+      <c r="P15" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q15" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="R15" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="S15" s="6" t="s">
         <v>84</v>
@@ -1888,16 +1796,14 @@
       <c r="T15" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="U15" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
+      <c r="U15" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="V15" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="W15" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>-</v>
+      <c r="W15" s="4" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
@@ -1914,36 +1820,29 @@
       <c r="E16" s="6">
         <v>15</v>
       </c>
-      <c r="F16" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v>-</v>
-      </c>
-      <c r="G16" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>-</v>
+      <c r="F16" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="I16" s="6" t="str">
-        <f t="shared" si="13"/>
-        <v>-</v>
-      </c>
-      <c r="J16" s="6" t="str">
-        <f t="shared" si="12"/>
-        <v>-</v>
-      </c>
-      <c r="K16" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="L16" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="M16" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
+      <c r="I16" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="N16" s="6" t="s">
         <v>57</v>
@@ -1951,17 +1850,14 @@
       <c r="O16" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="P16" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="Q16" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-      <c r="R16" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>-</v>
+      <c r="P16" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q16" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="R16" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="S16" s="6" t="s">
         <v>85</v>
@@ -1969,17 +1865,14 @@
       <c r="T16" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="U16" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
-      </c>
-      <c r="V16" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>-</v>
-      </c>
-      <c r="W16" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>-</v>
+      <c r="U16" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="V16" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="W16" s="4" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
@@ -1996,37 +1889,29 @@
       <c r="E17" s="6">
         <v>0</v>
       </c>
-      <c r="F17" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v>-</v>
-      </c>
-      <c r="G17" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>-</v>
-      </c>
-      <c r="H17" s="6" t="str">
-        <f t="shared" ref="H17:H68" si="15">IF(D17+5 &gt;= 20, "-")</f>
-        <v>-</v>
-      </c>
-      <c r="I17" s="6" t="str">
-        <f t="shared" si="13"/>
-        <v>-</v>
-      </c>
-      <c r="J17" s="6" t="str">
-        <f t="shared" si="12"/>
-        <v>-</v>
-      </c>
-      <c r="K17" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="L17" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="M17" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
+      <c r="F17" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="N17" s="6" t="s">
         <v>58</v>
@@ -2034,9 +1919,8 @@
       <c r="O17" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="P17" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
+      <c r="P17" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="Q17" s="6" t="s">
         <v>37</v>
@@ -2074,37 +1958,29 @@
       <c r="E18" s="6">
         <v>5</v>
       </c>
-      <c r="F18" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v>-</v>
-      </c>
-      <c r="G18" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>-</v>
-      </c>
-      <c r="H18" s="6" t="str">
-        <f t="shared" si="15"/>
-        <v>-</v>
-      </c>
-      <c r="I18" s="6" t="str">
-        <f t="shared" si="13"/>
-        <v>-</v>
-      </c>
-      <c r="J18" s="6" t="str">
-        <f t="shared" si="12"/>
-        <v>-</v>
-      </c>
-      <c r="K18" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="L18" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="M18" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
+      <c r="F18" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="N18" s="6" t="s">
         <v>59</v>
@@ -2112,16 +1988,14 @@
       <c r="O18" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="P18" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
+      <c r="P18" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="Q18" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="R18" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>-</v>
+      <c r="R18" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="S18" s="6" t="s">
         <v>87</v>
@@ -2153,37 +2027,29 @@
       <c r="E19" s="6">
         <v>10</v>
       </c>
-      <c r="F19" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v>-</v>
-      </c>
-      <c r="G19" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>-</v>
-      </c>
-      <c r="H19" s="6" t="str">
-        <f t="shared" si="15"/>
-        <v>-</v>
-      </c>
-      <c r="I19" s="6" t="str">
-        <f t="shared" si="13"/>
-        <v>-</v>
-      </c>
-      <c r="J19" s="6" t="str">
-        <f t="shared" si="12"/>
-        <v>-</v>
-      </c>
-      <c r="K19" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="L19" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="M19" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
+      <c r="F19" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="N19" s="6" t="s">
         <v>60</v>
@@ -2191,17 +2057,14 @@
       <c r="O19" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P19" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="Q19" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-      <c r="R19" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>-</v>
+      <c r="P19" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q19" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="R19" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="S19" s="6" t="s">
         <v>88</v>
@@ -2209,16 +2072,14 @@
       <c r="T19" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="U19" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
+      <c r="U19" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="V19" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="W19" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>-</v>
+      <c r="W19" s="4" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
@@ -2235,37 +2096,29 @@
       <c r="E20" s="6">
         <v>15</v>
       </c>
-      <c r="F20" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v>-</v>
-      </c>
-      <c r="G20" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>-</v>
-      </c>
-      <c r="H20" s="6" t="str">
-        <f t="shared" si="15"/>
-        <v>-</v>
-      </c>
-      <c r="I20" s="6" t="str">
-        <f t="shared" si="13"/>
-        <v>-</v>
-      </c>
-      <c r="J20" s="6" t="str">
-        <f t="shared" si="12"/>
-        <v>-</v>
-      </c>
-      <c r="K20" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="L20" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="M20" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
+      <c r="F20" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="N20" s="6" t="s">
         <v>61</v>
@@ -2273,17 +2126,14 @@
       <c r="O20" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="P20" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="Q20" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-      <c r="R20" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>-</v>
+      <c r="P20" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q20" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="R20" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="S20" s="6" t="s">
         <v>89</v>
@@ -2291,17 +2141,14 @@
       <c r="T20" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="U20" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
-      </c>
-      <c r="V20" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>-</v>
-      </c>
-      <c r="W20" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>-</v>
+      <c r="U20" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="V20" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="W20" s="4" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
@@ -2336,9 +2183,8 @@
       <c r="K21" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="L21" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
+      <c r="L21" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="M21" s="4" t="s">
         <v>5</v>
@@ -2346,40 +2192,32 @@
       <c r="N21" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="O21" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="P21" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="Q21" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-      <c r="R21" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>-</v>
-      </c>
-      <c r="S21" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
+      <c r="O21" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q21" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="R21" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="S21" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="T21" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="U21" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
-      </c>
-      <c r="V21" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>-</v>
-      </c>
-      <c r="W21" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>-</v>
+      <c r="U21" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="V21" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="W21" s="4" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
@@ -2414,9 +2252,8 @@
       <c r="K22" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L22" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
+      <c r="L22" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="M22" s="4" t="s">
         <v>39</v>
@@ -2424,40 +2261,32 @@
       <c r="N22" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="O22" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="P22" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="Q22" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-      <c r="R22" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>-</v>
-      </c>
-      <c r="S22" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
+      <c r="O22" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="P22" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q22" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="R22" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="S22" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="T22" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="U22" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
-      </c>
-      <c r="V22" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>-</v>
-      </c>
-      <c r="W22" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>-</v>
+      <c r="U22" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="V22" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="W22" s="4" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
@@ -2492,9 +2321,8 @@
       <c r="K23" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="L23" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
+      <c r="L23" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="M23" s="4" t="s">
         <v>40</v>
@@ -2502,40 +2330,32 @@
       <c r="N23" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="O23" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="P23" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="Q23" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-      <c r="R23" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>-</v>
-      </c>
-      <c r="S23" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
+      <c r="O23" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="P23" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q23" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="R23" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="S23" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="T23" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="U23" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
-      </c>
-      <c r="V23" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>-</v>
-      </c>
-      <c r="W23" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>-</v>
+      <c r="U23" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="V23" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="W23" s="4" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
@@ -2570,9 +2390,8 @@
       <c r="K24" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="L24" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
+      <c r="L24" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="M24" s="4" t="s">
         <v>41</v>
@@ -2580,40 +2399,32 @@
       <c r="N24" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="O24" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="P24" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="Q24" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-      <c r="R24" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>-</v>
-      </c>
-      <c r="S24" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
+      <c r="O24" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="P24" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q24" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="R24" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="S24" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="T24" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="U24" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
-      </c>
-      <c r="V24" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>-</v>
-      </c>
-      <c r="W24" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>-</v>
+      <c r="U24" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="V24" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="W24" s="4" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
@@ -2633,9 +2444,8 @@
       <c r="F25" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G25" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>-</v>
+      <c r="G25" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>54</v>
@@ -2643,16 +2453,14 @@
       <c r="I25" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="J25" s="6" t="str">
-        <f t="shared" si="12"/>
-        <v>-</v>
+      <c r="J25" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="K25" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L25" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
+      <c r="L25" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="M25" s="4" t="s">
         <v>42</v>
@@ -2663,21 +2471,17 @@
       <c r="O25" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="P25" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="Q25" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-      <c r="R25" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>-</v>
-      </c>
-      <c r="S25" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
+      <c r="P25" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q25" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="R25" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="S25" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="T25" s="4" t="s">
         <v>66</v>
@@ -2709,9 +2513,8 @@
       <c r="F26" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="G26" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>-</v>
+      <c r="G26" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>55</v>
@@ -2719,16 +2522,14 @@
       <c r="I26" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="J26" s="6" t="str">
-        <f t="shared" si="12"/>
-        <v>-</v>
+      <c r="J26" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="K26" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="L26" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
+      <c r="L26" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="M26" s="4" t="s">
         <v>43</v>
@@ -2739,21 +2540,17 @@
       <c r="O26" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="P26" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="Q26" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-      <c r="R26" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>-</v>
-      </c>
-      <c r="S26" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
+      <c r="P26" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q26" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="R26" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="S26" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="T26" s="4" t="s">
         <v>67</v>
@@ -2785,9 +2582,8 @@
       <c r="F27" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="G27" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>-</v>
+      <c r="G27" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>56</v>
@@ -2795,16 +2591,14 @@
       <c r="I27" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="J27" s="6" t="str">
-        <f t="shared" si="12"/>
-        <v>-</v>
+      <c r="J27" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="K27" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="L27" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
+      <c r="L27" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="M27" s="4" t="s">
         <v>45</v>
@@ -2815,35 +2609,29 @@
       <c r="O27" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="P27" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="Q27" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-      <c r="R27" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>-</v>
-      </c>
-      <c r="S27" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
+      <c r="P27" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q27" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="R27" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="S27" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="T27" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="U27" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
+      <c r="U27" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="V27" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="W27" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>-</v>
+      <c r="W27" s="4" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
@@ -2863,9 +2651,8 @@
       <c r="F28" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G28" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>-</v>
+      <c r="G28" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>57</v>
@@ -2873,16 +2660,14 @@
       <c r="I28" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="J28" s="6" t="str">
-        <f t="shared" si="12"/>
-        <v>-</v>
+      <c r="J28" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="K28" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="L28" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
+      <c r="L28" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="M28" s="4" t="s">
         <v>44</v>
@@ -2893,36 +2678,29 @@
       <c r="O28" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="P28" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="Q28" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-      <c r="R28" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>-</v>
-      </c>
-      <c r="S28" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
+      <c r="P28" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q28" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="R28" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="S28" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="T28" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="U28" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
-      </c>
-      <c r="V28" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>-</v>
-      </c>
-      <c r="W28" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>-</v>
+      <c r="U28" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="V28" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="W28" s="4" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
@@ -2939,35 +2717,29 @@
       <c r="E29" s="6">
         <v>0</v>
       </c>
-      <c r="F29" s="4" t="str">
-        <f>IF(D29+10 &gt;= 20, "-")</f>
-        <v>-</v>
-      </c>
-      <c r="G29" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>-</v>
+      <c r="F29" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="H29" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="I29" s="6" t="str">
-        <f t="shared" si="13"/>
-        <v>-</v>
-      </c>
-      <c r="J29" s="6" t="str">
-        <f t="shared" si="12"/>
-        <v>-</v>
+      <c r="I29" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="K29" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L29" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="M29" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
+      <c r="L29" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="N29" s="6" t="s">
         <v>70</v>
@@ -2984,9 +2756,8 @@
       <c r="R29" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="S29" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
+      <c r="S29" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="T29" s="4" t="s">
         <v>70</v>
@@ -3015,35 +2786,29 @@
       <c r="E30" s="6">
         <v>5</v>
       </c>
-      <c r="F30" s="4" t="str">
-        <f t="shared" ref="F30:F35" si="16">IF(D30+10 &gt;= 20, "-")</f>
-        <v>-</v>
-      </c>
-      <c r="G30" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>-</v>
+      <c r="F30" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="H30" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="I30" s="6" t="str">
-        <f t="shared" si="13"/>
-        <v>-</v>
-      </c>
-      <c r="J30" s="6" t="str">
-        <f t="shared" si="12"/>
-        <v>-</v>
+      <c r="I30" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="K30" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="L30" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="M30" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
+      <c r="L30" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="N30" s="6" t="s">
         <v>71</v>
@@ -3051,20 +2816,17 @@
       <c r="O30" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="P30" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
+      <c r="P30" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="Q30" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="R30" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>-</v>
-      </c>
-      <c r="S30" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
+      <c r="R30" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="S30" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="T30" s="4" t="s">
         <v>71</v>
@@ -3093,35 +2855,29 @@
       <c r="E31" s="6">
         <v>10</v>
       </c>
-      <c r="F31" s="4" t="str">
-        <f t="shared" si="16"/>
-        <v>-</v>
-      </c>
-      <c r="G31" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>-</v>
+      <c r="F31" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="H31" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="I31" s="6" t="str">
-        <f t="shared" si="13"/>
-        <v>-</v>
-      </c>
-      <c r="J31" s="6" t="str">
-        <f t="shared" si="12"/>
-        <v>-</v>
+      <c r="I31" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="K31" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="L31" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="M31" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
+      <c r="L31" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="N31" s="6" t="s">
         <v>72</v>
@@ -3129,35 +2885,29 @@
       <c r="O31" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="P31" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="Q31" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-      <c r="R31" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>-</v>
-      </c>
-      <c r="S31" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
+      <c r="P31" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q31" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="R31" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="S31" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="T31" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="U31" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
+      <c r="U31" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="V31" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="W31" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>-</v>
+      <c r="W31" s="4" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
@@ -3174,35 +2924,29 @@
       <c r="E32" s="6">
         <v>15</v>
       </c>
-      <c r="F32" s="4" t="str">
-        <f t="shared" si="16"/>
-        <v>-</v>
-      </c>
-      <c r="G32" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>-</v>
+      <c r="F32" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="H32" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="I32" s="6" t="str">
-        <f t="shared" si="13"/>
-        <v>-</v>
-      </c>
-      <c r="J32" s="6" t="str">
-        <f t="shared" si="12"/>
-        <v>-</v>
+      <c r="I32" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="K32" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="L32" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="M32" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
+      <c r="L32" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="M32" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="N32" s="6" t="s">
         <v>73</v>
@@ -3210,36 +2954,29 @@
       <c r="O32" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="P32" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="Q32" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-      <c r="R32" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>-</v>
-      </c>
-      <c r="S32" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
+      <c r="P32" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q32" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="R32" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="S32" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="T32" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="U32" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
-      </c>
-      <c r="V32" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>-</v>
-      </c>
-      <c r="W32" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>-</v>
+      <c r="U32" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="V32" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="W32" s="4" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
@@ -3256,36 +2993,29 @@
       <c r="E33" s="6">
         <v>0</v>
       </c>
-      <c r="F33" s="4" t="str">
-        <f t="shared" si="16"/>
-        <v>-</v>
-      </c>
-      <c r="G33" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>-</v>
-      </c>
-      <c r="H33" s="6" t="str">
-        <f t="shared" si="15"/>
-        <v>-</v>
-      </c>
-      <c r="I33" s="6" t="str">
-        <f t="shared" si="13"/>
-        <v>-</v>
-      </c>
-      <c r="J33" s="6" t="str">
-        <f t="shared" si="12"/>
-        <v>-</v>
+      <c r="F33" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="K33" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="L33" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="M33" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
+      <c r="L33" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="N33" s="6" t="s">
         <v>74</v>
@@ -3302,9 +3032,8 @@
       <c r="R33" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="S33" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
+      <c r="S33" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="T33" s="4" t="s">
         <v>74</v>
@@ -3333,36 +3062,29 @@
       <c r="E34" s="6">
         <v>5</v>
       </c>
-      <c r="F34" s="4" t="str">
-        <f t="shared" si="16"/>
-        <v>-</v>
-      </c>
-      <c r="G34" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>-</v>
-      </c>
-      <c r="H34" s="6" t="str">
-        <f t="shared" si="15"/>
-        <v>-</v>
-      </c>
-      <c r="I34" s="6" t="str">
-        <f t="shared" si="13"/>
-        <v>-</v>
-      </c>
-      <c r="J34" s="6" t="str">
-        <f t="shared" si="12"/>
-        <v>-</v>
+      <c r="F34" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="K34" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="L34" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="M34" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
+      <c r="L34" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="N34" s="6" t="s">
         <v>75</v>
@@ -3370,20 +3092,17 @@
       <c r="O34" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="P34" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
+      <c r="P34" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="Q34" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="R34" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>-</v>
-      </c>
-      <c r="S34" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
+      <c r="R34" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="S34" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="T34" s="4" t="s">
         <v>75</v>
@@ -3412,36 +3131,29 @@
       <c r="E35" s="6">
         <v>10</v>
       </c>
-      <c r="F35" s="4" t="str">
-        <f t="shared" si="16"/>
-        <v>-</v>
-      </c>
-      <c r="G35" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>-</v>
-      </c>
-      <c r="H35" s="6" t="str">
-        <f t="shared" si="15"/>
-        <v>-</v>
-      </c>
-      <c r="I35" s="6" t="str">
-        <f t="shared" si="13"/>
-        <v>-</v>
-      </c>
-      <c r="J35" s="6" t="str">
-        <f t="shared" si="12"/>
-        <v>-</v>
+      <c r="F35" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="K35" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="L35" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="M35" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
+      <c r="L35" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="M35" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="N35" s="6" t="s">
         <v>76</v>
@@ -3449,35 +3161,29 @@
       <c r="O35" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="P35" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="Q35" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-      <c r="R35" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>-</v>
-      </c>
-      <c r="S35" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
+      <c r="P35" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q35" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="R35" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="S35" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="T35" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="U35" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
+      <c r="U35" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="V35" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="W35" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>-</v>
+      <c r="W35" s="4" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
@@ -3494,36 +3200,29 @@
       <c r="E36" s="6">
         <v>15</v>
       </c>
-      <c r="F36" s="4" t="str">
-        <f>IF(D36+10 &gt;= 20, "-")</f>
-        <v>-</v>
-      </c>
-      <c r="G36" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>-</v>
-      </c>
-      <c r="H36" s="6" t="str">
-        <f t="shared" si="15"/>
-        <v>-</v>
-      </c>
-      <c r="I36" s="6" t="str">
-        <f t="shared" si="13"/>
-        <v>-</v>
-      </c>
-      <c r="J36" s="6" t="str">
-        <f t="shared" si="12"/>
-        <v>-</v>
+      <c r="F36" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="K36" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="L36" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="M36" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
+      <c r="L36" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="M36" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="N36" s="6" t="s">
         <v>77</v>
@@ -3531,36 +3230,29 @@
       <c r="O36" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="P36" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="Q36" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-      <c r="R36" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>-</v>
-      </c>
-      <c r="S36" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
+      <c r="P36" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q36" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="R36" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="S36" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="T36" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="U36" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
-      </c>
-      <c r="V36" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>-</v>
-      </c>
-      <c r="W36" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>-</v>
+      <c r="U36" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="V36" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="W36" s="4" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
@@ -3604,40 +3296,32 @@
       <c r="N37" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="O37" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="P37" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="Q37" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-      <c r="R37" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>-</v>
-      </c>
-      <c r="S37" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
+      <c r="O37" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="P37" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q37" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="R37" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="S37" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="T37" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="U37" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
-      </c>
-      <c r="V37" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>-</v>
-      </c>
-      <c r="W37" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>-</v>
+      <c r="U37" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="V37" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="W37" s="4" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.25">
@@ -3681,40 +3365,32 @@
       <c r="N38" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="O38" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="P38" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="Q38" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-      <c r="R38" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>-</v>
-      </c>
-      <c r="S38" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
+      <c r="O38" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="P38" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q38" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="R38" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="S38" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="T38" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="U38" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
-      </c>
-      <c r="V38" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>-</v>
-      </c>
-      <c r="W38" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>-</v>
+      <c r="U38" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="V38" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="W38" s="4" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
@@ -3758,40 +3434,32 @@
       <c r="N39" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="O39" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="P39" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="Q39" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-      <c r="R39" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>-</v>
-      </c>
-      <c r="S39" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
+      <c r="O39" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="P39" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q39" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="R39" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="S39" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="T39" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="U39" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
-      </c>
-      <c r="V39" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>-</v>
-      </c>
-      <c r="W39" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>-</v>
+      <c r="U39" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="V39" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="W39" s="4" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.25">
@@ -3835,40 +3503,32 @@
       <c r="N40" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="O40" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="P40" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="Q40" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-      <c r="R40" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>-</v>
-      </c>
-      <c r="S40" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
+      <c r="O40" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="P40" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q40" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="R40" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="S40" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="T40" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="U40" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
-      </c>
-      <c r="V40" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>-</v>
-      </c>
-      <c r="W40" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>-</v>
+      <c r="U40" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="V40" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="W40" s="4" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.25">
@@ -3888,9 +3548,8 @@
       <c r="F41" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G41" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>-</v>
+      <c r="G41" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="H41" s="6" t="s">
         <v>70</v>
@@ -3898,9 +3557,8 @@
       <c r="I41" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="J41" s="6" t="str">
-        <f t="shared" si="12"/>
-        <v>-</v>
+      <c r="J41" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="K41" s="4" t="s">
         <v>49</v>
@@ -3914,25 +3572,20 @@
       <c r="N41" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="O41" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="P41" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="Q41" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-      <c r="R41" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>-</v>
-      </c>
-      <c r="S41" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
+      <c r="O41" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="P41" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q41" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="R41" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="S41" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="T41" s="4" t="s">
         <v>82</v>
@@ -3964,9 +3617,8 @@
       <c r="F42" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="G42" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>-</v>
+      <c r="G42" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="H42" s="6" t="s">
         <v>71</v>
@@ -3974,9 +3626,8 @@
       <c r="I42" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="J42" s="6" t="str">
-        <f t="shared" si="12"/>
-        <v>-</v>
+      <c r="J42" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="K42" s="4" t="s">
         <v>51</v>
@@ -3990,25 +3641,20 @@
       <c r="N42" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="O42" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="P42" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="Q42" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-      <c r="R42" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>-</v>
-      </c>
-      <c r="S42" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
+      <c r="O42" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="P42" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q42" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="R42" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="S42" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="T42" s="4" t="s">
         <v>83</v>
@@ -4040,9 +3686,8 @@
       <c r="F43" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G43" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>-</v>
+      <c r="G43" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="H43" s="6" t="s">
         <v>72</v>
@@ -4050,9 +3695,8 @@
       <c r="I43" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="J43" s="6" t="str">
-        <f t="shared" si="12"/>
-        <v>-</v>
+      <c r="J43" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="K43" s="4" t="s">
         <v>52</v>
@@ -4066,39 +3710,32 @@
       <c r="N43" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="O43" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="P43" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="Q43" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-      <c r="R43" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>-</v>
-      </c>
-      <c r="S43" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
+      <c r="O43" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="P43" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q43" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="R43" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="S43" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="T43" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="U43" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
+      <c r="U43" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="V43" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="W43" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>-</v>
+      <c r="W43" s="4" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
@@ -4118,9 +3755,8 @@
       <c r="F44" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G44" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>-</v>
+      <c r="G44" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="H44" s="6" t="s">
         <v>73</v>
@@ -4128,9 +3764,8 @@
       <c r="I44" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="J44" s="6" t="str">
-        <f t="shared" si="12"/>
-        <v>-</v>
+      <c r="J44" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="K44" s="4" t="s">
         <v>53</v>
@@ -4144,40 +3779,32 @@
       <c r="N44" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="O44" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="P44" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="Q44" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-      <c r="R44" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>-</v>
-      </c>
-      <c r="S44" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
+      <c r="O44" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="P44" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q44" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="R44" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="S44" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="T44" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="U44" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
-      </c>
-      <c r="V44" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>-</v>
-      </c>
-      <c r="W44" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>-</v>
+      <c r="U44" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="V44" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="W44" s="4" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
@@ -4194,24 +3821,20 @@
       <c r="E45" s="6">
         <v>0</v>
       </c>
-      <c r="F45" s="4" t="str">
-        <f t="shared" ref="F45:F52" si="17">IF(D45+10 &gt;= 20, "-")</f>
-        <v>-</v>
-      </c>
-      <c r="G45" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>-</v>
+      <c r="F45" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="H45" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="I45" s="6" t="str">
-        <f t="shared" si="13"/>
-        <v>-</v>
-      </c>
-      <c r="J45" s="6" t="str">
-        <f t="shared" si="12"/>
-        <v>-</v>
+      <c r="I45" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="J45" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="K45" s="4" t="s">
         <v>54</v>
@@ -4219,16 +3842,14 @@
       <c r="L45" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="M45" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
+      <c r="M45" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="N45" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="O45" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
+      <c r="O45" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="P45" s="4" t="s">
         <v>48</v>
@@ -4239,9 +3860,8 @@
       <c r="R45" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="S45" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
+      <c r="S45" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="T45" s="4" t="s">
         <v>86</v>
@@ -4270,24 +3890,20 @@
       <c r="E46" s="6">
         <v>5</v>
       </c>
-      <c r="F46" s="4" t="str">
-        <f t="shared" si="17"/>
-        <v>-</v>
-      </c>
-      <c r="G46" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>-</v>
+      <c r="F46" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="H46" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="I46" s="6" t="str">
-        <f t="shared" si="13"/>
-        <v>-</v>
-      </c>
-      <c r="J46" s="6" t="str">
-        <f t="shared" si="12"/>
-        <v>-</v>
+      <c r="I46" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="J46" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="K46" s="4" t="s">
         <v>55</v>
@@ -4295,31 +3911,26 @@
       <c r="L46" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="M46" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
+      <c r="M46" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="N46" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="O46" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="P46" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
+      <c r="O46" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="P46" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="Q46" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="R46" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>-</v>
-      </c>
-      <c r="S46" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
+      <c r="R46" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="S46" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="T46" s="4" t="s">
         <v>87</v>
@@ -4348,24 +3959,20 @@
       <c r="E47" s="6">
         <v>10</v>
       </c>
-      <c r="F47" s="4" t="str">
-        <f t="shared" si="17"/>
-        <v>-</v>
-      </c>
-      <c r="G47" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>-</v>
+      <c r="F47" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="H47" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="I47" s="6" t="str">
-        <f t="shared" si="13"/>
-        <v>-</v>
-      </c>
-      <c r="J47" s="6" t="str">
-        <f t="shared" si="12"/>
-        <v>-</v>
+      <c r="I47" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="J47" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="K47" s="4" t="s">
         <v>56</v>
@@ -4373,46 +3980,38 @@
       <c r="L47" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="M47" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
+      <c r="M47" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="N47" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="O47" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="P47" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="Q47" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-      <c r="R47" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>-</v>
-      </c>
-      <c r="S47" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
+      <c r="O47" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="P47" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q47" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="R47" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="S47" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="T47" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="U47" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
+      <c r="U47" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="V47" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="W47" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>-</v>
+      <c r="W47" s="4" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.25">
@@ -4429,24 +4028,20 @@
       <c r="E48" s="6">
         <v>15</v>
       </c>
-      <c r="F48" s="4" t="str">
-        <f t="shared" si="17"/>
-        <v>-</v>
-      </c>
-      <c r="G48" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>-</v>
+      <c r="F48" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="H48" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="I48" s="6" t="str">
-        <f t="shared" si="13"/>
-        <v>-</v>
-      </c>
-      <c r="J48" s="6" t="str">
-        <f t="shared" si="12"/>
-        <v>-</v>
+      <c r="I48" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="J48" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="K48" s="4" t="s">
         <v>57</v>
@@ -4454,47 +4049,38 @@
       <c r="L48" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="M48" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
+      <c r="M48" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="N48" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="O48" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="P48" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="Q48" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-      <c r="R48" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>-</v>
-      </c>
-      <c r="S48" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
+      <c r="O48" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="P48" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q48" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="R48" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="S48" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="T48" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="U48" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
-      </c>
-      <c r="V48" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>-</v>
-      </c>
-      <c r="W48" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>-</v>
+      <c r="U48" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="V48" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="W48" s="4" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.25">
@@ -4511,43 +4097,35 @@
       <c r="E49" s="6">
         <v>0</v>
       </c>
-      <c r="F49" s="4" t="str">
-        <f t="shared" si="17"/>
-        <v>-</v>
-      </c>
-      <c r="G49" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>-</v>
-      </c>
-      <c r="H49" s="6" t="str">
-        <f t="shared" si="15"/>
-        <v>-</v>
-      </c>
-      <c r="I49" s="6" t="str">
-        <f t="shared" si="13"/>
-        <v>-</v>
-      </c>
-      <c r="J49" s="6" t="str">
-        <f t="shared" si="12"/>
-        <v>-</v>
+      <c r="F49" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="J49" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="K49" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="L49" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="M49" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
+      <c r="L49" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="M49" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="N49" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="O49" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
+      <c r="O49" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="P49" s="4" t="s">
         <v>53</v>
@@ -4558,9 +4136,8 @@
       <c r="R49" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="S49" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
+      <c r="S49" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="T49" s="4" t="s">
         <v>90</v>
@@ -4589,58 +4166,47 @@
       <c r="E50" s="6">
         <v>5</v>
       </c>
-      <c r="F50" s="4" t="str">
-        <f t="shared" si="17"/>
-        <v>-</v>
-      </c>
-      <c r="G50" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>-</v>
-      </c>
-      <c r="H50" s="6" t="str">
-        <f t="shared" si="15"/>
-        <v>-</v>
-      </c>
-      <c r="I50" s="6" t="str">
-        <f t="shared" si="13"/>
-        <v>-</v>
-      </c>
-      <c r="J50" s="6" t="str">
-        <f t="shared" si="12"/>
-        <v>-</v>
+      <c r="F50" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="I50" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="J50" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="K50" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="L50" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="M50" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
+      <c r="L50" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="M50" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="N50" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="O50" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="P50" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
+      <c r="O50" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="P50" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="Q50" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="R50" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>-</v>
-      </c>
-      <c r="S50" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
+      <c r="R50" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="S50" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="T50" s="4" t="s">
         <v>91</v>
@@ -4669,73 +4235,59 @@
       <c r="E51" s="6">
         <v>10</v>
       </c>
-      <c r="F51" s="4" t="str">
-        <f t="shared" si="17"/>
-        <v>-</v>
-      </c>
-      <c r="G51" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>-</v>
-      </c>
-      <c r="H51" s="6" t="str">
-        <f t="shared" si="15"/>
-        <v>-</v>
-      </c>
-      <c r="I51" s="6" t="str">
-        <f t="shared" si="13"/>
-        <v>-</v>
-      </c>
-      <c r="J51" s="6" t="str">
-        <f t="shared" si="12"/>
-        <v>-</v>
+      <c r="F51" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="I51" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="J51" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="K51" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="L51" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="M51" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
+      <c r="L51" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="M51" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="N51" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="O51" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="P51" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="Q51" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-      <c r="R51" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>-</v>
-      </c>
-      <c r="S51" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
+      <c r="O51" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="P51" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q51" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="R51" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="S51" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="T51" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="U51" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
+      <c r="U51" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="V51" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="W51" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>-</v>
+      <c r="W51" s="4" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.25">
@@ -4752,74 +4304,59 @@
       <c r="E52" s="6">
         <v>15</v>
       </c>
-      <c r="F52" s="4" t="str">
-        <f t="shared" si="17"/>
-        <v>-</v>
-      </c>
-      <c r="G52" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>-</v>
-      </c>
-      <c r="H52" s="6" t="str">
-        <f t="shared" si="15"/>
-        <v>-</v>
-      </c>
-      <c r="I52" s="6" t="str">
-        <f t="shared" si="13"/>
-        <v>-</v>
-      </c>
-      <c r="J52" s="6" t="str">
-        <f t="shared" si="12"/>
-        <v>-</v>
+      <c r="F52" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="I52" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="J52" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="K52" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="L52" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="M52" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
+      <c r="L52" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="M52" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="N52" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="O52" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="P52" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="Q52" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-      <c r="R52" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>-</v>
-      </c>
-      <c r="S52" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
+      <c r="O52" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="P52" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q52" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="R52" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="S52" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="T52" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="U52" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
-      </c>
-      <c r="V52" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>-</v>
-      </c>
-      <c r="W52" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>-</v>
+      <c r="U52" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="V52" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="W52" s="4" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.25">
@@ -4860,45 +4397,35 @@
       <c r="M53" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="N53" s="6" t="str">
-        <f t="shared" ref="N53:N68" si="18">IF(C53+5&gt;=20,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="O53" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="P53" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="Q53" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-      <c r="R53" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>-</v>
-      </c>
-      <c r="S53" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="T53" s="4" t="str">
-        <f t="shared" ref="T53:T68" si="19">IF(C53 + 5 &gt;= 20,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="U53" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
-      </c>
-      <c r="V53" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>-</v>
-      </c>
-      <c r="W53" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>-</v>
+      <c r="N53" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="O53" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="P53" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q53" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="R53" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="S53" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="T53" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="U53" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="V53" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="W53" s="4" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.25">
@@ -4939,45 +4466,35 @@
       <c r="M54" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="N54" s="6" t="str">
-        <f t="shared" si="18"/>
-        <v>-</v>
-      </c>
-      <c r="O54" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="P54" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="Q54" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-      <c r="R54" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>-</v>
-      </c>
-      <c r="S54" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="T54" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>-</v>
-      </c>
-      <c r="U54" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
-      </c>
-      <c r="V54" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>-</v>
-      </c>
-      <c r="W54" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>-</v>
+      <c r="N54" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="O54" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="P54" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q54" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="R54" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="S54" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="T54" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="U54" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="V54" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="W54" s="4" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.25">
@@ -5018,45 +4535,35 @@
       <c r="M55" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="N55" s="6" t="str">
-        <f t="shared" si="18"/>
-        <v>-</v>
-      </c>
-      <c r="O55" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="P55" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="Q55" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-      <c r="R55" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>-</v>
-      </c>
-      <c r="S55" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="T55" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>-</v>
-      </c>
-      <c r="U55" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
-      </c>
-      <c r="V55" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>-</v>
-      </c>
-      <c r="W55" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>-</v>
+      <c r="N55" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="O55" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="P55" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q55" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="R55" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="S55" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="T55" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="U55" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="V55" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="W55" s="4" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.25">
@@ -5097,45 +4604,35 @@
       <c r="M56" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="N56" s="6" t="str">
-        <f t="shared" si="18"/>
-        <v>-</v>
-      </c>
-      <c r="O56" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="P56" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="Q56" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-      <c r="R56" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>-</v>
-      </c>
-      <c r="S56" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="T56" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>-</v>
-      </c>
-      <c r="U56" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
-      </c>
-      <c r="V56" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>-</v>
-      </c>
-      <c r="W56" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>-</v>
+      <c r="N56" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="O56" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="P56" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q56" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="R56" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="S56" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="T56" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="U56" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="V56" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="W56" s="4" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.25">
@@ -5155,9 +4652,8 @@
       <c r="F57" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G57" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>-</v>
+      <c r="G57" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="H57" s="6" t="s">
         <v>86</v>
@@ -5165,9 +4661,8 @@
       <c r="I57" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="J57" s="6" t="str">
-        <f t="shared" si="12"/>
-        <v>-</v>
+      <c r="J57" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="K57" s="4" t="s">
         <v>66</v>
@@ -5178,33 +4673,26 @@
       <c r="M57" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="N57" s="6" t="str">
-        <f t="shared" si="18"/>
-        <v>-</v>
-      </c>
-      <c r="O57" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="P57" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="Q57" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-      <c r="R57" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>-</v>
-      </c>
-      <c r="S57" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="T57" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>-</v>
+      <c r="N57" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="O57" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="P57" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q57" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="R57" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="S57" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="T57" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="U57" s="6" t="s">
         <v>80</v>
@@ -5233,9 +4721,8 @@
       <c r="F58" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="G58" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>-</v>
+      <c r="G58" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="H58" s="6" t="s">
         <v>87</v>
@@ -5243,9 +4730,8 @@
       <c r="I58" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="J58" s="6" t="str">
-        <f t="shared" si="12"/>
-        <v>-</v>
+      <c r="J58" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="K58" s="4" t="s">
         <v>67</v>
@@ -5256,33 +4742,26 @@
       <c r="M58" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="N58" s="6" t="str">
-        <f t="shared" si="18"/>
-        <v>-</v>
-      </c>
-      <c r="O58" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="P58" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="Q58" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-      <c r="R58" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>-</v>
-      </c>
-      <c r="S58" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="T58" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>-</v>
+      <c r="N58" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="O58" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="P58" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q58" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="R58" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="S58" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="T58" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="U58" s="6" t="s">
         <v>81</v>
@@ -5311,9 +4790,8 @@
       <c r="F59" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="G59" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>-</v>
+      <c r="G59" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="H59" s="6" t="s">
         <v>88</v>
@@ -5321,9 +4799,8 @@
       <c r="I59" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="J59" s="6" t="str">
-        <f t="shared" si="12"/>
-        <v>-</v>
+      <c r="J59" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="K59" s="4" t="s">
         <v>68</v>
@@ -5334,44 +4811,35 @@
       <c r="M59" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="N59" s="6" t="str">
-        <f t="shared" si="18"/>
-        <v>-</v>
-      </c>
-      <c r="O59" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="P59" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="Q59" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-      <c r="R59" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>-</v>
-      </c>
-      <c r="S59" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="T59" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>-</v>
-      </c>
-      <c r="U59" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
+      <c r="N59" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="O59" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="P59" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q59" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="R59" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="S59" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="T59" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="U59" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="V59" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="W59" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>-</v>
+      <c r="W59" s="4" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.25">
@@ -5391,9 +4859,8 @@
       <c r="F60" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="G60" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>-</v>
+      <c r="G60" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="H60" s="6" t="s">
         <v>89</v>
@@ -5401,9 +4868,8 @@
       <c r="I60" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="J60" s="6" t="str">
-        <f t="shared" si="12"/>
-        <v>-</v>
+      <c r="J60" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="K60" s="4" t="s">
         <v>69</v>
@@ -5414,45 +4880,35 @@
       <c r="M60" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="N60" s="6" t="str">
-        <f t="shared" si="18"/>
-        <v>-</v>
-      </c>
-      <c r="O60" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="P60" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="Q60" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-      <c r="R60" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>-</v>
-      </c>
-      <c r="S60" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="T60" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>-</v>
-      </c>
-      <c r="U60" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
-      </c>
-      <c r="V60" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>-</v>
-      </c>
-      <c r="W60" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>-</v>
+      <c r="N60" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="O60" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="P60" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q60" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="R60" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="S60" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="T60" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="U60" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="V60" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="W60" s="4" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.25">
@@ -5469,24 +4925,20 @@
       <c r="E61" s="6">
         <v>0</v>
       </c>
-      <c r="F61" s="4" t="str">
-        <f t="shared" ref="F61:F67" si="20">IF(D61+10 &gt;= 20, "-")</f>
-        <v>-</v>
-      </c>
-      <c r="G61" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>-</v>
+      <c r="F61" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="H61" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="I61" s="6" t="str">
-        <f t="shared" si="13"/>
-        <v>-</v>
-      </c>
-      <c r="J61" s="6" t="str">
-        <f t="shared" si="12"/>
-        <v>-</v>
+      <c r="I61" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="J61" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="K61" s="4" t="s">
         <v>70</v>
@@ -5494,17 +4946,14 @@
       <c r="L61" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="M61" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="N61" s="6" t="str">
-        <f t="shared" si="18"/>
-        <v>-</v>
-      </c>
-      <c r="O61" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
+      <c r="M61" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="N61" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="O61" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="P61" s="4" t="s">
         <v>65</v>
@@ -5515,13 +4964,11 @@
       <c r="R61" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="S61" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="T61" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>-</v>
+      <c r="S61" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="T61" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="U61" s="6" t="s">
         <v>84</v>
@@ -5547,24 +4994,20 @@
       <c r="E62" s="6">
         <v>5</v>
       </c>
-      <c r="F62" s="4" t="str">
-        <f t="shared" si="20"/>
-        <v>-</v>
-      </c>
-      <c r="G62" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>-</v>
+      <c r="F62" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="H62" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="I62" s="6" t="str">
-        <f t="shared" si="13"/>
-        <v>-</v>
-      </c>
-      <c r="J62" s="6" t="str">
-        <f t="shared" si="12"/>
-        <v>-</v>
+      <c r="I62" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="J62" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="K62" s="4" t="s">
         <v>71</v>
@@ -5572,36 +5015,29 @@
       <c r="L62" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="M62" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="N62" s="6" t="str">
-        <f t="shared" si="18"/>
-        <v>-</v>
-      </c>
-      <c r="O62" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="P62" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
+      <c r="M62" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="N62" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="O62" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="P62" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="Q62" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="R62" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>-</v>
-      </c>
-      <c r="S62" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="T62" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>-</v>
+      <c r="R62" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="S62" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="T62" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="U62" s="6" t="s">
         <v>85</v>
@@ -5627,24 +5063,20 @@
       <c r="E63" s="6">
         <v>10</v>
       </c>
-      <c r="F63" s="4" t="str">
-        <f t="shared" si="20"/>
-        <v>-</v>
-      </c>
-      <c r="G63" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>-</v>
+      <c r="F63" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="H63" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="I63" s="6" t="str">
-        <f t="shared" si="13"/>
-        <v>-</v>
-      </c>
-      <c r="J63" s="6" t="str">
-        <f t="shared" si="12"/>
-        <v>-</v>
+      <c r="I63" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="J63" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="K63" s="4" t="s">
         <v>72</v>
@@ -5652,48 +5084,38 @@
       <c r="L63" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="M63" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="N63" s="6" t="str">
-        <f t="shared" si="18"/>
-        <v>-</v>
-      </c>
-      <c r="O63" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="P63" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="Q63" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-      <c r="R63" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>-</v>
-      </c>
-      <c r="S63" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="T63" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>-</v>
-      </c>
-      <c r="U63" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
+      <c r="M63" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="N63" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="O63" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="P63" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q63" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="R63" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="S63" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="T63" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="U63" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="V63" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="W63" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>-</v>
+      <c r="W63" s="4" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.25">
@@ -5710,24 +5132,20 @@
       <c r="E64" s="6">
         <v>15</v>
       </c>
-      <c r="F64" s="4" t="str">
-        <f t="shared" si="20"/>
-        <v>-</v>
-      </c>
-      <c r="G64" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>-</v>
+      <c r="F64" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="H64" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="I64" s="6" t="str">
-        <f t="shared" si="13"/>
-        <v>-</v>
-      </c>
-      <c r="J64" s="6" t="str">
-        <f t="shared" si="12"/>
-        <v>-</v>
+      <c r="I64" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="J64" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="K64" s="4" t="s">
         <v>73</v>
@@ -5735,49 +5153,38 @@
       <c r="L64" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="M64" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="N64" s="6" t="str">
-        <f t="shared" si="18"/>
-        <v>-</v>
-      </c>
-      <c r="O64" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="P64" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="Q64" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-      <c r="R64" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>-</v>
-      </c>
-      <c r="S64" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="T64" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>-</v>
-      </c>
-      <c r="U64" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
-      </c>
-      <c r="V64" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>-</v>
-      </c>
-      <c r="W64" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>-</v>
+      <c r="M64" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="N64" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="O64" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="P64" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q64" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="R64" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="S64" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="T64" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="U64" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="V64" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="W64" s="4" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.25">
@@ -5794,44 +5201,35 @@
       <c r="E65" s="6">
         <v>0</v>
       </c>
-      <c r="F65" s="4" t="str">
-        <f t="shared" si="20"/>
-        <v>-</v>
-      </c>
-      <c r="G65" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>-</v>
-      </c>
-      <c r="H65" s="6" t="str">
-        <f t="shared" si="15"/>
-        <v>-</v>
-      </c>
-      <c r="I65" s="6" t="str">
-        <f t="shared" si="13"/>
-        <v>-</v>
-      </c>
-      <c r="J65" s="6" t="str">
-        <f t="shared" si="12"/>
-        <v>-</v>
+      <c r="F65" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="H65" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="I65" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="J65" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="K65" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="L65" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="M65" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="N65" s="6" t="str">
-        <f t="shared" si="18"/>
-        <v>-</v>
-      </c>
-      <c r="O65" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
+      <c r="L65" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="M65" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="N65" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="O65" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="P65" s="4" t="s">
         <v>69</v>
@@ -5842,13 +5240,11 @@
       <c r="R65" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="S65" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="T65" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>-</v>
+      <c r="S65" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="T65" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="U65" s="6" t="s">
         <v>88</v>
@@ -5874,63 +5270,50 @@
       <c r="E66" s="6">
         <v>5</v>
       </c>
-      <c r="F66" s="4" t="str">
-        <f t="shared" si="20"/>
-        <v>-</v>
-      </c>
-      <c r="G66" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>-</v>
-      </c>
-      <c r="H66" s="6" t="str">
-        <f>IF(D66+5 &gt;= 20, "-")</f>
-        <v>-</v>
-      </c>
-      <c r="I66" s="6" t="str">
-        <f t="shared" si="13"/>
-        <v>-</v>
-      </c>
-      <c r="J66" s="6" t="str">
-        <f t="shared" si="12"/>
-        <v>-</v>
+      <c r="F66" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="H66" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="I66" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="J66" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="K66" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="L66" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="M66" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="N66" s="6" t="str">
-        <f t="shared" si="18"/>
-        <v>-</v>
-      </c>
-      <c r="O66" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="P66" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
+      <c r="L66" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="M66" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="N66" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="O66" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="P66" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="Q66" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="R66" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>-</v>
-      </c>
-      <c r="S66" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="T66" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>-</v>
+      <c r="R66" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="S66" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="T66" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="U66" s="6" t="s">
         <v>89</v>
@@ -5956,75 +5339,59 @@
       <c r="E67" s="6">
         <v>10</v>
       </c>
-      <c r="F67" s="4" t="str">
-        <f t="shared" si="20"/>
-        <v>-</v>
-      </c>
-      <c r="G67" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>-</v>
-      </c>
-      <c r="H67" s="6" t="str">
-        <f t="shared" si="15"/>
-        <v>-</v>
-      </c>
-      <c r="I67" s="6" t="str">
-        <f t="shared" si="13"/>
-        <v>-</v>
-      </c>
-      <c r="J67" s="6" t="str">
-        <f t="shared" si="12"/>
-        <v>-</v>
+      <c r="F67" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="H67" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="I67" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="J67" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="K67" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="L67" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="M67" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="N67" s="6" t="str">
-        <f t="shared" si="18"/>
-        <v>-</v>
-      </c>
-      <c r="O67" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="P67" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="Q67" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-      <c r="R67" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>-</v>
-      </c>
-      <c r="S67" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="T67" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>-</v>
-      </c>
-      <c r="U67" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
+      <c r="L67" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="M67" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="N67" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="O67" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="P67" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q67" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="R67" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="S67" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="T67" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="U67" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="V67" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="W67" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>-</v>
+      <c r="W67" s="4" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.25">
@@ -6043,76 +5410,59 @@
       <c r="E68" s="6">
         <v>15</v>
       </c>
-      <c r="F68" s="4" t="str">
-        <f>IF(D68+10 &gt;= 20, "-")</f>
-        <v>-</v>
-      </c>
-      <c r="G68" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>-</v>
-      </c>
-      <c r="H68" s="6" t="str">
-        <f t="shared" si="15"/>
-        <v>-</v>
-      </c>
-      <c r="I68" s="6" t="str">
-        <f t="shared" si="13"/>
-        <v>-</v>
-      </c>
-      <c r="J68" s="6" t="str">
-        <f t="shared" si="12"/>
-        <v>-</v>
+      <c r="F68" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="H68" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="I68" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="J68" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="K68" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="L68" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="M68" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="N68" s="6" t="str">
-        <f t="shared" si="18"/>
-        <v>-</v>
-      </c>
-      <c r="O68" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="P68" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="Q68" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-      <c r="R68" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>-</v>
-      </c>
-      <c r="S68" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="T68" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>-</v>
-      </c>
-      <c r="U68" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
-      </c>
-      <c r="V68" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>-</v>
-      </c>
-      <c r="W68" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>-</v>
+      <c r="L68" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="M68" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="N68" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="O68" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="P68" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q68" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="R68" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="S68" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="T68" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="U68" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="V68" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="W68" s="4" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.25">
@@ -6147,54 +5497,44 @@
         <v>42</v>
       </c>
       <c r="K69" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="K7:K69" si="0">IF(C69-5 &lt;= -5, "-")</f>
         <v>-</v>
       </c>
-      <c r="L69" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="M69" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
+      <c r="L69" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="M69" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="N69" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="O69" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="P69" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="Q69" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-      <c r="R69" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>-</v>
-      </c>
-      <c r="S69" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
+      <c r="O69" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="P69" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q69" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="R69" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="S69" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="T69" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="U69" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
-      </c>
-      <c r="V69" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>-</v>
-      </c>
-      <c r="W69" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>-</v>
+      <c r="U69" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="V69" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="W69" s="4" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.25">
